--- a/site/all-profiles.xlsx
+++ b/site/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26124" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26124" uniqueCount="1898">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-03T11:11:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -728,7 +728,7 @@
   </si>
   <si>
     <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() or slot.exists()}</t>
   </si>
   <si>
     <t>Appointment.id</t>
@@ -1295,11 +1295,11 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-slot)
 </t>
   </si>
   <si>
-    <t>The slots that this appointment is filling</t>
+    <t>Slot this appointment is booked for</t>
   </si>
   <si>
     <t>The slots from the participants' schedules that will be filled by the appointment.</t>
@@ -1422,7 +1422,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-patient|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-location)
 </t>
   </si>
   <si>
@@ -1481,10 +1481,10 @@
     <t>This does not introduce a capacity for recurring appointments.</t>
   </si>
   <si>
-    <t>medme-pharmacy-healthcareservice</t>
-  </si>
-  <si>
-    <t>https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice</t>
+    <t>medme-pharmacy-healthcare-service</t>
+  </si>
+  <si>
+    <t>https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service</t>
   </si>
   <si>
     <t>MedMePharmacyHealthcareService</t>
@@ -5575,6 +5575,10 @@
     <t>Schedule.actor</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
+</t>
+  </si>
+  <si>
     <t>Actors for this schedule (HealthcareServices and Locations)</t>
   </si>
   <si>
@@ -5597,7 +5601,7 @@
     <t>healthcareServices</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service)
 </t>
   </si>
   <si>
@@ -8867,7 +8871,7 @@
         <v>2</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="371">
@@ -8875,7 +8879,7 @@
         <v>4</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="372">
@@ -8891,7 +8895,7 @@
         <v>8</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="374">
@@ -8899,7 +8903,7 @@
         <v>10</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="375">
@@ -8953,7 +8957,7 @@
         <v>23</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="382">
@@ -8989,7 +8993,7 @@
         <v>31</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="387">
@@ -8997,7 +9001,7 @@
         <v>33</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="388">
@@ -9032,7 +9036,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.52734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="68.4375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -85136,16 +85140,16 @@
         <v>127</v>
       </c>
       <c r="L727" t="s" s="2">
-        <v>452</v>
+        <v>1800</v>
       </c>
       <c r="M727" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="N727" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="O727" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="P727" s="2"/>
       <c r="Q727" t="s" s="2">
@@ -85183,10 +85187,10 @@
         <v>77</v>
       </c>
       <c r="AC727" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="AD727" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AE727" t="s" s="2">
         <v>77</v>
@@ -85215,13 +85219,13 @@
         <v>1736</v>
       </c>
       <c r="B728" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C728" t="s" s="2">
         <v>1799</v>
       </c>
       <c r="D728" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E728" t="s" s="2">
         <v>77</v>
@@ -85243,16 +85247,16 @@
         <v>127</v>
       </c>
       <c r="L728" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="M728" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="N728" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="O728" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="P728" s="2"/>
       <c r="Q728" t="s" s="2">
@@ -85322,13 +85326,13 @@
         <v>1736</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C729" t="s" s="2">
         <v>1799</v>
       </c>
       <c r="D729" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="E729" t="s" s="2">
         <v>77</v>
@@ -85353,13 +85357,13 @@
         <v>612</v>
       </c>
       <c r="M729" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="N729" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="O729" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="P729" s="2"/>
       <c r="Q729" t="s" s="2">
@@ -85429,10 +85433,10 @@
         <v>1736</v>
       </c>
       <c r="B730" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C730" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D730" s="2"/>
       <c r="E730" t="s" s="2">
@@ -85458,10 +85462,10 @@
         <v>331</v>
       </c>
       <c r="M730" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="N730" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="O730" s="2"/>
       <c r="P730" s="2"/>
@@ -85512,7 +85516,7 @@
         <v>77</v>
       </c>
       <c r="AG730" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="AH730" t="s" s="2">
         <v>78</v>
@@ -85532,10 +85536,10 @@
         <v>1736</v>
       </c>
       <c r="B731" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C731" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D731" s="2"/>
       <c r="E731" t="s" s="2">
@@ -85561,10 +85565,10 @@
         <v>85</v>
       </c>
       <c r="M731" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="N731" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="O731" s="2"/>
       <c r="P731" s="2"/>
@@ -85615,7 +85619,7 @@
         <v>77</v>
       </c>
       <c r="AG731" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="AH731" t="s" s="2">
         <v>78</v>
@@ -85632,13 +85636,13 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C732" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D732" s="2"/>
       <c r="E732" t="s" s="2">
@@ -85664,10 +85668,10 @@
         <v>80</v>
       </c>
       <c r="M732" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="N732" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="O732" s="2"/>
       <c r="P732" s="2"/>
@@ -85718,7 +85722,7 @@
         <v>77</v>
       </c>
       <c r="AG732" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="AH732" t="s" s="2">
         <v>78</v>
@@ -85735,13 +85739,13 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C733" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D733" s="2"/>
       <c r="E733" t="s" s="2">
@@ -85767,7 +85771,7 @@
         <v>234</v>
       </c>
       <c r="M733" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="N733" t="s" s="2">
         <v>236</v>
@@ -85840,13 +85844,13 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C734" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D734" s="2"/>
       <c r="E734" t="s" s="2">
@@ -85943,13 +85947,13 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B735" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C735" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D735" s="2"/>
       <c r="E735" t="s" s="2">
@@ -86048,13 +86052,13 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B736" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C736" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D736" s="2"/>
       <c r="E736" t="s" s="2">
@@ -86153,13 +86157,13 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D737" s="2"/>
       <c r="E737" t="s" s="2">
@@ -86258,13 +86262,13 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C738" t="s" s="2">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" t="s" s="2">
@@ -86363,13 +86367,13 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B739" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C739" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D739" s="2"/>
       <c r="E739" t="s" s="2">
@@ -86464,16 +86468,16 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B740" t="s" s="2">
+        <v>1836</v>
+      </c>
+      <c r="C740" t="s" s="2">
         <v>1835</v>
       </c>
-      <c r="C740" t="s" s="2">
-        <v>1834</v>
-      </c>
       <c r="D740" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="E740" t="s" s="2">
         <v>77</v>
@@ -86495,10 +86499,10 @@
         <v>77</v>
       </c>
       <c r="L740" t="s" s="2">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="M740" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="N740" t="s" s="2">
         <v>184</v>
@@ -86569,16 +86573,16 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C741" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D741" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E741" t="s" s="2">
         <v>77</v>
@@ -86600,10 +86604,10 @@
         <v>77</v>
       </c>
       <c r="L741" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="M741" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="N741" t="s" s="2">
         <v>191</v>
@@ -86674,13 +86678,13 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B742" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C742" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D742" s="2"/>
       <c r="E742" t="s" s="2">
@@ -86781,13 +86785,13 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B743" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C743" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" t="s" s="2">
@@ -86813,7 +86817,7 @@
         <v>293</v>
       </c>
       <c r="M743" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="N743" t="s" s="2">
         <v>1757</v>
@@ -86867,7 +86871,7 @@
         <v>77</v>
       </c>
       <c r="AG743" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="AH743" t="s" s="2">
         <v>78</v>
@@ -86884,13 +86888,13 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B744" t="s" s="2">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C744" t="s" s="2">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D744" s="2"/>
       <c r="E744" t="s" s="2">
@@ -86987,13 +86991,13 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B745" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C745" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D745" s="2"/>
       <c r="E745" t="s" s="2">
@@ -87092,13 +87096,13 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B746" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C746" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D746" s="2"/>
       <c r="E746" t="s" s="2">
@@ -87199,13 +87203,13 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B747" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C747" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D747" s="2"/>
       <c r="E747" t="s" s="2">
@@ -87306,13 +87310,13 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B748" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C748" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D748" s="2"/>
       <c r="E748" t="s" s="2">
@@ -87354,7 +87358,7 @@
       </c>
       <c r="R748" s="2"/>
       <c r="S748" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="T748" t="s" s="2">
         <v>77</v>
@@ -87413,13 +87417,13 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B749" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C749" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" t="s" s="2">
@@ -87445,7 +87449,7 @@
         <v>85</v>
       </c>
       <c r="M749" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="N749" t="s" s="2">
         <v>326</v>
@@ -87518,13 +87522,13 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C750" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" t="s" s="2">
@@ -87621,13 +87625,13 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B751" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C751" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" t="s" s="2">
@@ -87726,13 +87730,13 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B752" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C752" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" t="s" s="2">
@@ -87810,7 +87814,7 @@
         <v>77</v>
       </c>
       <c r="AG752" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="AH752" t="s" s="2">
         <v>78</v>
@@ -87827,13 +87831,13 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C753" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D753" s="2"/>
       <c r="E753" t="s" s="2">
@@ -87859,10 +87863,10 @@
         <v>122</v>
       </c>
       <c r="M753" t="s" s="2">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="N753" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="O753" s="2"/>
       <c r="P753" s="2"/>
@@ -87911,7 +87915,7 @@
         <v>77</v>
       </c>
       <c r="AG753" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="AH753" t="s" s="2">
         <v>78</v>
@@ -87928,13 +87932,13 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B754" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C754" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D754" s="2"/>
       <c r="E754" t="s" s="2">
@@ -88031,13 +88035,13 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B755" t="s" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C755" t="s" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D755" s="2"/>
       <c r="E755" t="s" s="2">
@@ -88136,13 +88140,13 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B756" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C756" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D756" s="2"/>
       <c r="E756" t="s" s="2">
@@ -88168,7 +88172,7 @@
         <v>128</v>
       </c>
       <c r="M756" t="s" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="N756" t="s" s="2">
         <v>130</v>
@@ -88243,13 +88247,13 @@
     </row>
     <row r="757">
       <c r="A757" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B757" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C757" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D757" s="2"/>
       <c r="E757" t="s" s="2">
@@ -88346,13 +88350,13 @@
     </row>
     <row r="758">
       <c r="A758" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C758" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D758" s="2"/>
       <c r="E758" t="s" s="2">
@@ -88451,13 +88455,13 @@
     </row>
     <row r="759">
       <c r="A759" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C759" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D759" s="2"/>
       <c r="E759" t="s" s="2">
@@ -88558,13 +88562,13 @@
     </row>
     <row r="760">
       <c r="A760" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B760" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C760" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D760" s="2"/>
       <c r="E760" t="s" s="2">
@@ -88663,13 +88667,13 @@
     </row>
     <row r="761">
       <c r="A761" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C761" t="s" s="2">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D761" s="2"/>
       <c r="E761" t="s" s="2">
@@ -88768,13 +88772,13 @@
     </row>
     <row r="762">
       <c r="A762" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C762" t="s" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D762" s="2"/>
       <c r="E762" t="s" s="2">
@@ -88873,13 +88877,13 @@
     </row>
     <row r="763">
       <c r="A763" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B763" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C763" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D763" s="2"/>
       <c r="E763" t="s" s="2">
@@ -88980,13 +88984,13 @@
     </row>
     <row r="764">
       <c r="A764" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B764" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C764" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D764" s="2"/>
       <c r="E764" t="s" s="2">
@@ -89087,13 +89091,13 @@
     </row>
     <row r="765">
       <c r="A765" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B765" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C765" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D765" s="2"/>
       <c r="E765" t="s" s="2">
@@ -89173,7 +89177,7 @@
         <v>77</v>
       </c>
       <c r="AG765" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AH765" t="s" s="2">
         <v>78</v>
@@ -89190,13 +89194,13 @@
     </row>
     <row r="766">
       <c r="A766" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B766" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C766" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D766" s="2"/>
       <c r="E766" t="s" s="2">
@@ -89222,10 +89226,10 @@
         <v>122</v>
       </c>
       <c r="M766" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="N766" t="s" s="2">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="O766" s="2"/>
       <c r="P766" s="2"/>
@@ -89274,7 +89278,7 @@
         <v>77</v>
       </c>
       <c r="AG766" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="AH766" t="s" s="2">
         <v>78</v>
@@ -89291,13 +89295,13 @@
     </row>
     <row r="767">
       <c r="A767" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B767" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C767" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D767" s="2"/>
       <c r="E767" t="s" s="2">
@@ -89320,13 +89324,13 @@
         <v>127</v>
       </c>
       <c r="L767" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="M767" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="N767" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="O767" s="2"/>
       <c r="P767" s="2"/>
@@ -89377,7 +89381,7 @@
         <v>77</v>
       </c>
       <c r="AG767" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="AH767" t="s" s="2">
         <v>84</v>
@@ -89394,13 +89398,13 @@
     </row>
     <row r="768">
       <c r="A768" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B768" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C768" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D768" s="2"/>
       <c r="E768" t="s" s="2">
@@ -89426,10 +89430,10 @@
         <v>149</v>
       </c>
       <c r="M768" t="s" s="2">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="N768" t="s" s="2">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="O768" s="2"/>
       <c r="P768" s="2"/>
@@ -89460,7 +89464,7 @@
       </c>
       <c r="Z768" s="2"/>
       <c r="AA768" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="AB768" t="s" s="2">
         <v>77</v>
@@ -89478,7 +89482,7 @@
         <v>77</v>
       </c>
       <c r="AG768" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="AH768" t="s" s="2">
         <v>84</v>
@@ -89495,13 +89499,13 @@
     </row>
     <row r="769">
       <c r="A769" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B769" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C769" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D769" s="2"/>
       <c r="E769" t="s" s="2">
@@ -89527,10 +89531,10 @@
         <v>403</v>
       </c>
       <c r="M769" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="N769" t="s" s="2">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="O769" s="2"/>
       <c r="P769" s="2"/>
@@ -89581,7 +89585,7 @@
         <v>77</v>
       </c>
       <c r="AG769" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="AH769" t="s" s="2">
         <v>84</v>
@@ -89598,13 +89602,13 @@
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B770" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C770" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" t="s" s="2">
@@ -89630,10 +89634,10 @@
         <v>403</v>
       </c>
       <c r="M770" t="s" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="N770" t="s" s="2">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="O770" s="2"/>
       <c r="P770" s="2"/>
@@ -89684,7 +89688,7 @@
         <v>77</v>
       </c>
       <c r="AG770" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AH770" t="s" s="2">
         <v>84</v>
@@ -89701,13 +89705,13 @@
     </row>
     <row r="771">
       <c r="A771" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B771" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C771" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" t="s" s="2">
@@ -89733,10 +89737,10 @@
         <v>160</v>
       </c>
       <c r="M771" t="s" s="2">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="N771" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="O771" s="2"/>
       <c r="P771" s="2"/>
@@ -89744,7 +89748,7 @@
         <v>77</v>
       </c>
       <c r="R771" t="s" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="S771" t="s" s="2">
         <v>77</v>
@@ -89789,7 +89793,7 @@
         <v>77</v>
       </c>
       <c r="AG771" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="AH771" t="s" s="2">
         <v>78</v>
@@ -89806,13 +89810,13 @@
     </row>
     <row r="772">
       <c r="A772" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B772" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C772" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D772" s="2"/>
       <c r="E772" t="s" s="2">
@@ -89838,10 +89842,10 @@
         <v>85</v>
       </c>
       <c r="M772" t="s" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="N772" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="O772" s="2"/>
       <c r="P772" s="2"/>
@@ -89892,7 +89896,7 @@
         <v>77</v>
       </c>
       <c r="AG772" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="AH772" t="s" s="2">
         <v>78</v>

--- a/site/all-profiles.xlsx
+++ b/site/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27183" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27183" uniqueCount="1985">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4679,11 +4679,11 @@
     <t>jhn</t>
   </si>
   <si>
-    <t>Patient JHN identifier (Quebec)</t>
+    <t>Optional identifier representing Patient JHN (Quebec)</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-jhn-identifier-pattern:JHN identifier must follow specific pattern when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id' and type.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0203' and code = 'JHN').exists())}jhn-extension-format:JHN version extension must have proper format when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(extension.where(url = 'https://build.fhir.org/ig/HL7-Canada/ca-baseline/StructureDefinition-ext-identifierversion.html').all(valueString.exists() and valueString.length() &gt; 0))}</t>
+jhn-type-code:JHN identifier type code must be JHN when present {type.coding.code = 'JHN'}jhn-identifier-pattern:JHN identifier must follow specific pattern when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id' and type.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0203' and code = 'JHN').exists())}jhn-extension-format:JHN version extension must have proper format when present {%resource.identifier.where(system = 'https://fhir.infoway-inforoute.ca/NamingSystem/ca-qc-patient-healthcare-id').all(extension.where(url = 'https://build.fhir.org/ig/HL7-Canada/ca-baseline/StructureDefinition-ext-identifierversion.html').all(valueString.exists() and valueString.length() &gt; 0))}</t>
   </si>
   <si>
     <t>Patient.identifier:jhn.id</t>
@@ -4752,11 +4752,11 @@
     <t>pcId</t>
   </si>
   <si>
-    <t>External PC ID for Patient</t>
+    <t>Optional identifier representing external PC ID for Patient</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-pcid-identifier-pattern:PCID identifier must follow specific pattern when present {%resource.identifier.where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').all(valueString.exists() and valueString.length() &gt; 0)}</t>
+pcid-system:PCID identifier system must be correct when present {system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id'}pcid-type-code:PCID identifier type code must be PT when present {type.coding.code = 'PT'}pcid-identifier-pattern:PCID identifier must follow specific pattern when present {value.exists() and value.length() &gt; 0}</t>
   </si>
   <si>
     <t>Patient.identifier:pcId.id</t>
@@ -4795,9 +4795,6 @@
     <t>Patient.identifier:pcId.type.coding.code</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>Patient.identifier:pcId.type.coding.display</t>
   </si>
   <si>
@@ -4810,7 +4807,7 @@
     <t>Patient.identifier:pcId.system</t>
   </si>
   <si>
-    <t>https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id</t>
+    <t>PCID identifier system</t>
   </si>
   <si>
     <t>Patient.identifier:pcId.value</t>
@@ -8973,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="350">
@@ -8981,7 +8978,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="351">
@@ -8997,7 +8994,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="353">
@@ -9005,7 +9002,7 @@
         <v>10</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="354">
@@ -9059,7 +9056,7 @@
         <v>23</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="361">
@@ -9095,7 +9092,7 @@
         <v>31</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="366">
@@ -9103,7 +9100,7 @@
         <v>33</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="367">
@@ -9135,7 +9132,7 @@
         <v>2</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="371">
@@ -9143,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="372">
@@ -9159,7 +9156,7 @@
         <v>8</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="374">
@@ -9167,7 +9164,7 @@
         <v>10</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="375">
@@ -9221,7 +9218,7 @@
         <v>23</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="382">
@@ -9257,7 +9254,7 @@
         <v>31</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="387">
@@ -9265,7 +9262,7 @@
         <v>33</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="388">
@@ -9300,17 +9297,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="68.4375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.40625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="66.21484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="41.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="33.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9319,21 +9316,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="57.0703125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="40.5859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="70.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="56.9609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="41.36328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="69.9609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="39.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.22265625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -70261,10 +70258,10 @@
       </c>
       <c r="F583" s="2"/>
       <c r="G583" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H583" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I583" t="s" s="2">
         <v>77</v>
@@ -70788,7 +70785,7 @@
       </c>
       <c r="F588" s="2"/>
       <c r="G588" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H588" t="s" s="2">
         <v>84</v>
@@ -70823,7 +70820,7 @@
         <v>77</v>
       </c>
       <c r="T588" t="s" s="2">
-        <v>1429</v>
+        <v>77</v>
       </c>
       <c r="U588" t="s" s="2">
         <v>77</v>
@@ -72369,10 +72366,10 @@
       </c>
       <c r="F603" s="2"/>
       <c r="G603" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H603" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I603" t="s" s="2">
         <v>77</v>
@@ -72896,7 +72893,7 @@
       </c>
       <c r="F608" s="2"/>
       <c r="G608" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H608" t="s" s="2">
         <v>84</v>
@@ -72931,7 +72928,7 @@
         <v>77</v>
       </c>
       <c r="T608" t="s" s="2">
-        <v>1548</v>
+        <v>77</v>
       </c>
       <c r="U608" t="s" s="2">
         <v>77</v>
@@ -72990,7 +72987,7 @@
         <v>1203</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C609" t="s" s="2">
         <v>1497</v>
@@ -73095,7 +73092,7 @@
         <v>1203</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C610" t="s" s="2">
         <v>1499</v>
@@ -73202,7 +73199,7 @@
         <v>1203</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C611" t="s" s="2">
         <v>1501</v>
@@ -73309,7 +73306,7 @@
         <v>1203</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C612" t="s" s="2">
         <v>1447</v>
@@ -73338,7 +73335,7 @@
         <v>97</v>
       </c>
       <c r="M612" t="s" s="2">
-        <v>318</v>
+        <v>1552</v>
       </c>
       <c r="N612" t="s" s="2">
         <v>319</v>
@@ -73354,7 +73351,7 @@
       </c>
       <c r="R612" s="2"/>
       <c r="S612" t="s" s="2">
-        <v>1553</v>
+        <v>77</v>
       </c>
       <c r="T612" t="s" s="2">
         <v>77</v>
@@ -73416,7 +73413,7 @@
         <v>1203</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C613" t="s" s="2">
         <v>1450</v>
@@ -73521,7 +73518,7 @@
         <v>1203</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C614" t="s" s="2">
         <v>1452</v>
@@ -73624,7 +73621,7 @@
         <v>1203</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C615" t="s" s="2">
         <v>1454</v>
@@ -73729,10 +73726,10 @@
         <v>1203</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -73758,16 +73755,16 @@
         <v>160</v>
       </c>
       <c r="M616" t="s" s="2">
+        <v>1557</v>
+      </c>
+      <c r="N616" t="s" s="2">
         <v>1558</v>
       </c>
-      <c r="N616" t="s" s="2">
+      <c r="O616" t="s" s="2">
         <v>1559</v>
       </c>
-      <c r="O616" t="s" s="2">
+      <c r="P616" t="s" s="2">
         <v>1560</v>
-      </c>
-      <c r="P616" t="s" s="2">
-        <v>1561</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>77</v>
@@ -73818,7 +73815,7 @@
         <v>77</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>78</v>
@@ -73838,10 +73835,10 @@
         <v>1203</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -73867,16 +73864,16 @@
         <v>1187</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="N617" t="s" s="2">
         <v>1563</v>
       </c>
-      <c r="N617" t="s" s="2">
+      <c r="O617" t="s" s="2">
         <v>1564</v>
       </c>
-      <c r="O617" t="s" s="2">
+      <c r="P617" t="s" s="2">
         <v>1565</v>
-      </c>
-      <c r="P617" t="s" s="2">
-        <v>1566</v>
       </c>
       <c r="Q617" t="s" s="2">
         <v>77</v>
@@ -73925,7 +73922,7 @@
         <v>77</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>78</v>
@@ -73937,7 +73934,7 @@
         <v>77</v>
       </c>
       <c r="AK617" t="s" s="2">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="618">
@@ -73945,10 +73942,10 @@
         <v>1203</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -74048,10 +74045,10 @@
         <v>1203</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -74153,10 +74150,10 @@
         <v>1203</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -74182,16 +74179,16 @@
         <v>149</v>
       </c>
       <c r="M620" t="s" s="2">
+        <v>1570</v>
+      </c>
+      <c r="N620" t="s" s="2">
         <v>1571</v>
       </c>
-      <c r="N620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>1572</v>
       </c>
-      <c r="O620" t="s" s="2">
+      <c r="P620" t="s" s="2">
         <v>1573</v>
-      </c>
-      <c r="P620" t="s" s="2">
-        <v>1574</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>77</v>
@@ -74219,28 +74216,28 @@
         <v>304</v>
       </c>
       <c r="Z620" t="s" s="2">
+        <v>1574</v>
+      </c>
+      <c r="AA620" t="s" s="2">
         <v>1575</v>
       </c>
-      <c r="AA620" t="s" s="2">
+      <c r="AB620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG620" t="s" s="2">
         <v>1576</v>
-      </c>
-      <c r="AB620" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC620" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD620" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE620" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF620" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG620" t="s" s="2">
-        <v>1577</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>78</v>
@@ -74260,10 +74257,10 @@
         <v>1203</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -74289,13 +74286,13 @@
         <v>85</v>
       </c>
       <c r="M621" t="s" s="2">
+        <v>1578</v>
+      </c>
+      <c r="N621" t="s" s="2">
         <v>1579</v>
       </c>
-      <c r="N621" t="s" s="2">
+      <c r="O621" t="s" s="2">
         <v>1580</v>
-      </c>
-      <c r="O621" t="s" s="2">
-        <v>1581</v>
       </c>
       <c r="P621" t="s" s="2">
         <v>939</v>
@@ -74347,7 +74344,7 @@
         <v>77</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>78</v>
@@ -74367,14 +74364,14 @@
         <v>1203</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F622" s="2"/>
       <c r="G622" t="s" s="2">
@@ -74396,13 +74393,13 @@
         <v>85</v>
       </c>
       <c r="M622" t="s" s="2">
+        <v>1584</v>
+      </c>
+      <c r="N622" t="s" s="2">
         <v>1585</v>
       </c>
-      <c r="N622" t="s" s="2">
+      <c r="O622" t="s" s="2">
         <v>1586</v>
-      </c>
-      <c r="O622" t="s" s="2">
-        <v>1587</v>
       </c>
       <c r="P622" s="2"/>
       <c r="Q622" t="s" s="2">
@@ -74452,7 +74449,7 @@
         <v>77</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>78</v>
@@ -74472,14 +74469,14 @@
         <v>1203</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F623" s="2"/>
       <c r="G623" t="s" s="2">
@@ -74501,13 +74498,13 @@
         <v>85</v>
       </c>
       <c r="M623" t="s" s="2">
+        <v>1590</v>
+      </c>
+      <c r="N623" t="s" s="2">
         <v>1591</v>
       </c>
-      <c r="N623" t="s" s="2">
+      <c r="O623" t="s" s="2">
         <v>1592</v>
-      </c>
-      <c r="O623" t="s" s="2">
-        <v>1593</v>
       </c>
       <c r="P623" s="2"/>
       <c r="Q623" t="s" s="2">
@@ -74557,7 +74554,7 @@
         <v>77</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>78</v>
@@ -74577,10 +74574,10 @@
         <v>1203</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -74606,10 +74603,10 @@
         <v>85</v>
       </c>
       <c r="M624" t="s" s="2">
+        <v>1595</v>
+      </c>
+      <c r="N624" t="s" s="2">
         <v>1596</v>
-      </c>
-      <c r="N624" t="s" s="2">
-        <v>1597</v>
       </c>
       <c r="O624" s="2"/>
       <c r="P624" s="2"/>
@@ -74660,7 +74657,7 @@
         <v>77</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>78</v>
@@ -74680,10 +74677,10 @@
         <v>1203</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -74709,10 +74706,10 @@
         <v>85</v>
       </c>
       <c r="M625" t="s" s="2">
+        <v>1599</v>
+      </c>
+      <c r="N625" t="s" s="2">
         <v>1600</v>
-      </c>
-      <c r="N625" t="s" s="2">
-        <v>1601</v>
       </c>
       <c r="O625" s="2"/>
       <c r="P625" s="2"/>
@@ -74763,7 +74760,7 @@
         <v>77</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>78</v>
@@ -74783,10 +74780,10 @@
         <v>1203</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -74812,14 +74809,14 @@
         <v>332</v>
       </c>
       <c r="M626" t="s" s="2">
+        <v>1603</v>
+      </c>
+      <c r="N626" t="s" s="2">
         <v>1604</v>
-      </c>
-      <c r="N626" t="s" s="2">
-        <v>1605</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" t="s" s="2">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Q626" t="s" s="2">
         <v>77</v>
@@ -74868,7 +74865,7 @@
         <v>77</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>78</v>
@@ -74888,10 +74885,10 @@
         <v>1203</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -74991,10 +74988,10 @@
         <v>1203</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -75096,10 +75093,10 @@
         <v>1203</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -75125,13 +75122,13 @@
         <v>193</v>
       </c>
       <c r="M629" t="s" s="2">
+        <v>1610</v>
+      </c>
+      <c r="N629" t="s" s="2">
         <v>1611</v>
       </c>
-      <c r="N629" t="s" s="2">
+      <c r="O629" t="s" s="2">
         <v>1612</v>
-      </c>
-      <c r="O629" t="s" s="2">
-        <v>1613</v>
       </c>
       <c r="P629" s="2"/>
       <c r="Q629" t="s" s="2">
@@ -75181,16 +75178,16 @@
         <v>77</v>
       </c>
       <c r="AG629" t="s" s="2">
+        <v>1613</v>
+      </c>
+      <c r="AH629" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI629" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ629" t="s" s="2">
         <v>1614</v>
-      </c>
-      <c r="AH629" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI629" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ629" t="s" s="2">
-        <v>1615</v>
       </c>
       <c r="AK629" t="s" s="2">
         <v>105</v>
@@ -75201,10 +75198,10 @@
         <v>1203</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -75230,66 +75227,66 @@
         <v>193</v>
       </c>
       <c r="M630" t="s" s="2">
+        <v>1616</v>
+      </c>
+      <c r="N630" t="s" s="2">
         <v>1617</v>
       </c>
-      <c r="N630" t="s" s="2">
+      <c r="O630" t="s" s="2">
         <v>1618</v>
-      </c>
-      <c r="O630" t="s" s="2">
-        <v>1619</v>
       </c>
       <c r="P630" s="2"/>
       <c r="Q630" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R630" t="s" s="2">
+        <v>1619</v>
+      </c>
+      <c r="S630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG630" t="s" s="2">
         <v>1620</v>
       </c>
-      <c r="S630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF630" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG630" t="s" s="2">
-        <v>1621</v>
-      </c>
       <c r="AH630" t="s" s="2">
         <v>78</v>
       </c>
@@ -75297,7 +75294,7 @@
         <v>84</v>
       </c>
       <c r="AJ630" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AK630" t="s" s="2">
         <v>105</v>
@@ -75308,10 +75305,10 @@
         <v>1203</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -75337,13 +75334,13 @@
         <v>622</v>
       </c>
       <c r="M631" t="s" s="2">
+        <v>1622</v>
+      </c>
+      <c r="N631" t="s" s="2">
         <v>1623</v>
       </c>
-      <c r="N631" t="s" s="2">
+      <c r="O631" t="s" s="2">
         <v>1624</v>
-      </c>
-      <c r="O631" t="s" s="2">
-        <v>1625</v>
       </c>
       <c r="P631" t="s" s="2">
         <v>1194</v>
@@ -75395,7 +75392,7 @@
         <v>77</v>
       </c>
       <c r="AG631" t="s" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AH631" t="s" s="2">
         <v>78</v>
@@ -75415,10 +75412,10 @@
         <v>1203</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -75518,10 +75515,10 @@
         <v>1203</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -75623,10 +75620,10 @@
         <v>1203</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -75686,7 +75683,7 @@
       </c>
       <c r="Z634" s="2"/>
       <c r="AA634" t="s" s="2">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AB634" t="s" s="2">
         <v>77</v>
@@ -75724,10 +75721,10 @@
         <v>1203</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -75831,10 +75828,10 @@
         <v>1203</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75898,7 +75895,7 @@
       </c>
       <c r="Z636" s="2"/>
       <c r="AA636" t="s" s="2">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AB636" t="s" s="2">
         <v>77</v>
@@ -75936,10 +75933,10 @@
         <v>1203</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -76041,10 +76038,10 @@
         <v>1203</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -76144,10 +76141,10 @@
         <v>1203</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -76247,10 +76244,10 @@
         <v>1203</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -76352,10 +76349,10 @@
         <v>1203</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -76381,13 +76378,13 @@
         <v>193</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>1610</v>
+      </c>
+      <c r="N641" t="s" s="2">
         <v>1611</v>
       </c>
-      <c r="N641" t="s" s="2">
-        <v>1612</v>
-      </c>
       <c r="O641" t="s" s="2">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="P641" s="2"/>
       <c r="Q641" t="s" s="2">
@@ -76437,16 +76434,16 @@
         <v>77</v>
       </c>
       <c r="AG641" t="s" s="2">
+        <v>1613</v>
+      </c>
+      <c r="AH641" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI641" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ641" t="s" s="2">
         <v>1614</v>
-      </c>
-      <c r="AH641" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI641" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ641" t="s" s="2">
-        <v>1615</v>
       </c>
       <c r="AK641" t="s" s="2">
         <v>105</v>
@@ -76457,10 +76454,10 @@
         <v>1203</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -76486,66 +76483,66 @@
         <v>193</v>
       </c>
       <c r="M642" t="s" s="2">
+        <v>1616</v>
+      </c>
+      <c r="N642" t="s" s="2">
         <v>1617</v>
       </c>
-      <c r="N642" t="s" s="2">
-        <v>1618</v>
-      </c>
       <c r="O642" t="s" s="2">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="P642" s="2"/>
       <c r="Q642" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R642" t="s" s="2">
+        <v>1619</v>
+      </c>
+      <c r="S642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG642" t="s" s="2">
         <v>1620</v>
       </c>
-      <c r="S642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF642" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG642" t="s" s="2">
-        <v>1621</v>
-      </c>
       <c r="AH642" t="s" s="2">
         <v>78</v>
       </c>
@@ -76553,7 +76550,7 @@
         <v>84</v>
       </c>
       <c r="AJ642" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AK642" t="s" s="2">
         <v>105</v>
@@ -76564,10 +76561,10 @@
         <v>1203</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -76593,16 +76590,16 @@
         <v>149</v>
       </c>
       <c r="M643" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="N643" t="s" s="2">
         <v>1642</v>
       </c>
-      <c r="N643" t="s" s="2">
+      <c r="O643" t="s" s="2">
         <v>1643</v>
       </c>
-      <c r="O643" t="s" s="2">
+      <c r="P643" t="s" s="2">
         <v>1644</v>
-      </c>
-      <c r="P643" t="s" s="2">
-        <v>1645</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>77</v>
@@ -76631,7 +76628,7 @@
       </c>
       <c r="Z643" s="2"/>
       <c r="AA643" t="s" s="2">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="AB643" t="s" s="2">
         <v>77</v>
@@ -76649,7 +76646,7 @@
         <v>77</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>78</v>
@@ -76669,10 +76666,10 @@
         <v>1203</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -76695,19 +76692,19 @@
         <v>127</v>
       </c>
       <c r="L644" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="M644" t="s" s="2">
         <v>1648</v>
       </c>
-      <c r="M644" t="s" s="2">
+      <c r="N644" t="s" s="2">
         <v>1649</v>
-      </c>
-      <c r="N644" t="s" s="2">
-        <v>1650</v>
       </c>
       <c r="O644" t="s" s="2">
         <v>1263</v>
       </c>
       <c r="P644" t="s" s="2">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="Q644" t="s" s="2">
         <v>77</v>
@@ -76756,7 +76753,7 @@
         <v>77</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>78</v>
@@ -76776,10 +76773,10 @@
         <v>1203</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -76805,10 +76802,10 @@
         <v>85</v>
       </c>
       <c r="M645" t="s" s="2">
+        <v>1652</v>
+      </c>
+      <c r="N645" t="s" s="2">
         <v>1653</v>
-      </c>
-      <c r="N645" t="s" s="2">
-        <v>1654</v>
       </c>
       <c r="O645" s="2"/>
       <c r="P645" s="2"/>
@@ -76879,10 +76876,10 @@
         <v>1203</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -76982,13 +76979,13 @@
         <v>1203</v>
       </c>
       <c r="B647" t="s" s="2">
+        <v>1655</v>
+      </c>
+      <c r="C647" t="s" s="2">
+        <v>1654</v>
+      </c>
+      <c r="D647" t="s" s="2">
         <v>1656</v>
-      </c>
-      <c r="C647" t="s" s="2">
-        <v>1655</v>
-      </c>
-      <c r="D647" t="s" s="2">
-        <v>1657</v>
       </c>
       <c r="E647" t="s" s="2">
         <v>111</v>
@@ -77010,13 +77007,13 @@
         <v>77</v>
       </c>
       <c r="L647" t="s" s="2">
+        <v>1657</v>
+      </c>
+      <c r="M647" t="s" s="2">
         <v>1658</v>
       </c>
-      <c r="M647" t="s" s="2">
+      <c r="N647" t="s" s="2">
         <v>1659</v>
-      </c>
-      <c r="N647" t="s" s="2">
-        <v>1660</v>
       </c>
       <c r="O647" t="s" s="2">
         <v>114</v>
@@ -77089,10 +77086,10 @@
         <v>1203</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -77115,13 +77112,13 @@
         <v>77</v>
       </c>
       <c r="L648" t="s" s="2">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="M648" t="s" s="2">
+        <v>1661</v>
+      </c>
+      <c r="N648" t="s" s="2">
         <v>1662</v>
-      </c>
-      <c r="N648" t="s" s="2">
-        <v>1663</v>
       </c>
       <c r="O648" s="2"/>
       <c r="P648" s="2"/>
@@ -77172,7 +77169,7 @@
         <v>77</v>
       </c>
       <c r="AG648" t="s" s="2">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="AH648" t="s" s="2">
         <v>78</v>
@@ -77192,10 +77189,10 @@
         <v>1203</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -77218,19 +77215,19 @@
         <v>127</v>
       </c>
       <c r="L649" t="s" s="2">
+        <v>1665</v>
+      </c>
+      <c r="M649" t="s" s="2">
         <v>1666</v>
       </c>
-      <c r="M649" t="s" s="2">
+      <c r="N649" t="s" s="2">
         <v>1667</v>
       </c>
-      <c r="N649" t="s" s="2">
+      <c r="O649" t="s" s="2">
         <v>1668</v>
       </c>
-      <c r="O649" t="s" s="2">
+      <c r="P649" t="s" s="2">
         <v>1669</v>
-      </c>
-      <c r="P649" t="s" s="2">
-        <v>1670</v>
       </c>
       <c r="Q649" t="s" s="2">
         <v>77</v>
@@ -77279,7 +77276,7 @@
         <v>77</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>78</v>
@@ -77299,10 +77296,10 @@
         <v>1203</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -77328,7 +77325,7 @@
         <v>911</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="N650" t="s" s="2">
         <v>913</v>
@@ -77337,7 +77334,7 @@
         <v>914</v>
       </c>
       <c r="P650" t="s" s="2">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="Q650" t="s" s="2">
         <v>77</v>
@@ -77386,7 +77383,7 @@
         <v>77</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>78</v>
@@ -77406,10 +77403,10 @@
         <v>1203</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -77509,10 +77506,10 @@
         <v>1203</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -77614,10 +77611,10 @@
         <v>1203</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -77721,10 +77718,10 @@
         <v>1203</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -77826,10 +77823,10 @@
         <v>1203</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -77933,10 +77930,10 @@
         <v>1203</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -78036,10 +78033,10 @@
         <v>1203</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -78139,10 +78136,10 @@
         <v>1203</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -78244,10 +78241,10 @@
         <v>1203</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -78347,10 +78344,10 @@
         <v>1203</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -78450,10 +78447,10 @@
         <v>1203</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -78555,10 +78552,10 @@
         <v>1203</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -78660,10 +78657,10 @@
         <v>1203</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -78689,14 +78686,14 @@
         <v>122</v>
       </c>
       <c r="M663" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="N663" t="s" s="2">
         <v>1687</v>
-      </c>
-      <c r="N663" t="s" s="2">
-        <v>1688</v>
       </c>
       <c r="O663" s="2"/>
       <c r="P663" t="s" s="2">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="Q663" t="s" s="2">
         <v>77</v>
@@ -78724,11 +78721,11 @@
         <v>313</v>
       </c>
       <c r="Z663" t="s" s="2">
+        <v>1689</v>
+      </c>
+      <c r="AA663" t="s" s="2">
         <v>1690</v>
       </c>
-      <c r="AA663" t="s" s="2">
-        <v>1691</v>
-      </c>
       <c r="AB663" t="s" s="2">
         <v>77</v>
       </c>
@@ -78745,7 +78742,7 @@
         <v>77</v>
       </c>
       <c r="AG663" t="s" s="2">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="AH663" t="s" s="2">
         <v>78</v>
@@ -78765,10 +78762,10 @@
         <v>1203</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -78791,19 +78788,19 @@
         <v>77</v>
       </c>
       <c r="L664" t="s" s="2">
+        <v>1692</v>
+      </c>
+      <c r="M664" t="s" s="2">
         <v>1693</v>
       </c>
-      <c r="M664" t="s" s="2">
+      <c r="N664" t="s" s="2">
         <v>1694</v>
       </c>
-      <c r="N664" t="s" s="2">
+      <c r="O664" t="s" s="2">
         <v>1695</v>
       </c>
-      <c r="O664" t="s" s="2">
+      <c r="P664" t="s" s="2">
         <v>1696</v>
-      </c>
-      <c r="P664" t="s" s="2">
-        <v>1697</v>
       </c>
       <c r="Q664" t="s" s="2">
         <v>77</v>
@@ -78852,7 +78849,7 @@
         <v>77</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="AH664" t="s" s="2">
         <v>78</v>
@@ -78872,10 +78869,10 @@
         <v>1203</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -78901,16 +78898,16 @@
         <v>618</v>
       </c>
       <c r="M665" t="s" s="2">
+        <v>1698</v>
+      </c>
+      <c r="N665" t="s" s="2">
         <v>1699</v>
       </c>
-      <c r="N665" t="s" s="2">
+      <c r="O665" t="s" s="2">
         <v>1700</v>
       </c>
-      <c r="O665" t="s" s="2">
+      <c r="P665" t="s" s="2">
         <v>1701</v>
-      </c>
-      <c r="P665" t="s" s="2">
-        <v>1702</v>
       </c>
       <c r="Q665" t="s" s="2">
         <v>77</v>
@@ -78959,7 +78956,7 @@
         <v>77</v>
       </c>
       <c r="AG665" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="AH665" t="s" s="2">
         <v>78</v>
@@ -78979,10 +78976,10 @@
         <v>1203</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
@@ -79008,16 +79005,16 @@
         <v>436</v>
       </c>
       <c r="M666" t="s" s="2">
+        <v>1703</v>
+      </c>
+      <c r="N666" t="s" s="2">
         <v>1704</v>
       </c>
-      <c r="N666" t="s" s="2">
+      <c r="O666" t="s" s="2">
         <v>1705</v>
       </c>
-      <c r="O666" t="s" s="2">
+      <c r="P666" t="s" s="2">
         <v>1706</v>
-      </c>
-      <c r="P666" t="s" s="2">
-        <v>1707</v>
       </c>
       <c r="Q666" t="s" s="2">
         <v>77</v>
@@ -79066,7 +79063,7 @@
         <v>77</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>78</v>
@@ -79078,7 +79075,7 @@
         <v>77</v>
       </c>
       <c r="AK666" t="s" s="2">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="667">
@@ -79086,10 +79083,10 @@
         <v>1203</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -79189,10 +79186,10 @@
         <v>1203</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -79294,10 +79291,10 @@
         <v>1203</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
@@ -79401,10 +79398,10 @@
         <v>1203</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
@@ -79430,14 +79427,14 @@
         <v>122</v>
       </c>
       <c r="M670" t="s" s="2">
+        <v>1712</v>
+      </c>
+      <c r="N670" t="s" s="2">
         <v>1713</v>
-      </c>
-      <c r="N670" t="s" s="2">
-        <v>1714</v>
       </c>
       <c r="O670" s="2"/>
       <c r="P670" t="s" s="2">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="Q670" t="s" s="2">
         <v>77</v>
@@ -79465,11 +79462,11 @@
         <v>313</v>
       </c>
       <c r="Z670" t="s" s="2">
+        <v>1715</v>
+      </c>
+      <c r="AA670" t="s" s="2">
         <v>1716</v>
       </c>
-      <c r="AA670" t="s" s="2">
-        <v>1717</v>
-      </c>
       <c r="AB670" t="s" s="2">
         <v>77</v>
       </c>
@@ -79486,7 +79483,7 @@
         <v>77</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>78</v>
@@ -79506,10 +79503,10 @@
         <v>1203</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -79609,10 +79606,10 @@
         <v>1203</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
@@ -79714,10 +79711,10 @@
         <v>1203</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -79821,10 +79818,10 @@
         <v>1203</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -79924,10 +79921,10 @@
         <v>1203</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -80029,10 +80026,10 @@
         <v>1203</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -80074,7 +80071,7 @@
       </c>
       <c r="R676" s="2"/>
       <c r="S676" t="s" s="2">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="T676" t="s" s="2">
         <v>77</v>
@@ -80136,10 +80133,10 @@
         <v>1203</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -80241,10 +80238,10 @@
         <v>1203</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -80346,10 +80343,10 @@
         <v>1203</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -80451,10 +80448,10 @@
         <v>1203</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -80558,10 +80555,10 @@
         <v>1203</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -80665,10 +80662,10 @@
         <v>1203</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -80694,14 +80691,14 @@
         <v>1187</v>
       </c>
       <c r="M682" t="s" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N682" t="s" s="2">
         <v>1731</v>
-      </c>
-      <c r="N682" t="s" s="2">
-        <v>1732</v>
       </c>
       <c r="O682" s="2"/>
       <c r="P682" t="s" s="2">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="Q682" t="s" s="2">
         <v>77</v>
@@ -80750,7 +80747,7 @@
         <v>77</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="AH682" t="s" s="2">
         <v>78</v>
@@ -80770,10 +80767,10 @@
         <v>1203</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -80873,10 +80870,10 @@
         <v>1203</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -80978,10 +80975,10 @@
         <v>1203</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -81007,16 +81004,16 @@
         <v>149</v>
       </c>
       <c r="M685" t="s" s="2">
+        <v>1570</v>
+      </c>
+      <c r="N685" t="s" s="2">
         <v>1571</v>
       </c>
-      <c r="N685" t="s" s="2">
+      <c r="O685" t="s" s="2">
         <v>1572</v>
       </c>
-      <c r="O685" t="s" s="2">
+      <c r="P685" t="s" s="2">
         <v>1573</v>
-      </c>
-      <c r="P685" t="s" s="2">
-        <v>1574</v>
       </c>
       <c r="Q685" t="s" s="2">
         <v>77</v>
@@ -81044,28 +81041,28 @@
         <v>304</v>
       </c>
       <c r="Z685" t="s" s="2">
+        <v>1574</v>
+      </c>
+      <c r="AA685" t="s" s="2">
         <v>1575</v>
       </c>
-      <c r="AA685" t="s" s="2">
+      <c r="AB685" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC685" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD685" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE685" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF685" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG685" t="s" s="2">
         <v>1576</v>
-      </c>
-      <c r="AB685" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC685" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD685" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE685" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF685" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG685" t="s" s="2">
-        <v>1577</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>78</v>
@@ -81085,10 +81082,10 @@
         <v>1203</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -81114,13 +81111,13 @@
         <v>85</v>
       </c>
       <c r="M686" t="s" s="2">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="N686" t="s" s="2">
+        <v>1737</v>
+      </c>
+      <c r="O686" t="s" s="2">
         <v>1738</v>
-      </c>
-      <c r="O686" t="s" s="2">
-        <v>1739</v>
       </c>
       <c r="P686" t="s" s="2">
         <v>939</v>
@@ -81172,7 +81169,7 @@
         <v>77</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>78</v>
@@ -81192,14 +81189,14 @@
         <v>1203</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F687" s="2"/>
       <c r="G687" t="s" s="2">
@@ -81221,13 +81218,13 @@
         <v>85</v>
       </c>
       <c r="M687" t="s" s="2">
+        <v>1584</v>
+      </c>
+      <c r="N687" t="s" s="2">
         <v>1585</v>
       </c>
-      <c r="N687" t="s" s="2">
+      <c r="O687" t="s" s="2">
         <v>1586</v>
-      </c>
-      <c r="O687" t="s" s="2">
-        <v>1587</v>
       </c>
       <c r="P687" s="2"/>
       <c r="Q687" t="s" s="2">
@@ -81277,7 +81274,7 @@
         <v>77</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>78</v>
@@ -81297,14 +81294,14 @@
         <v>1203</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F688" s="2"/>
       <c r="G688" t="s" s="2">
@@ -81326,13 +81323,13 @@
         <v>85</v>
       </c>
       <c r="M688" t="s" s="2">
+        <v>1590</v>
+      </c>
+      <c r="N688" t="s" s="2">
         <v>1591</v>
       </c>
-      <c r="N688" t="s" s="2">
+      <c r="O688" t="s" s="2">
         <v>1592</v>
-      </c>
-      <c r="O688" t="s" s="2">
-        <v>1593</v>
       </c>
       <c r="P688" s="2"/>
       <c r="Q688" t="s" s="2">
@@ -81382,7 +81379,7 @@
         <v>77</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>78</v>
@@ -81402,10 +81399,10 @@
         <v>1203</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -81431,10 +81428,10 @@
         <v>85</v>
       </c>
       <c r="M689" t="s" s="2">
+        <v>1595</v>
+      </c>
+      <c r="N689" t="s" s="2">
         <v>1596</v>
-      </c>
-      <c r="N689" t="s" s="2">
-        <v>1597</v>
       </c>
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
@@ -81485,7 +81482,7 @@
         <v>77</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>78</v>
@@ -81505,10 +81502,10 @@
         <v>1203</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -81534,10 +81531,10 @@
         <v>85</v>
       </c>
       <c r="M690" t="s" s="2">
+        <v>1599</v>
+      </c>
+      <c r="N690" t="s" s="2">
         <v>1600</v>
-      </c>
-      <c r="N690" t="s" s="2">
-        <v>1601</v>
       </c>
       <c r="O690" s="2"/>
       <c r="P690" s="2"/>
@@ -81588,7 +81585,7 @@
         <v>77</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>78</v>
@@ -81608,10 +81605,10 @@
         <v>1203</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -81637,14 +81634,14 @@
         <v>332</v>
       </c>
       <c r="M691" t="s" s="2">
+        <v>1603</v>
+      </c>
+      <c r="N691" t="s" s="2">
         <v>1604</v>
-      </c>
-      <c r="N691" t="s" s="2">
-        <v>1605</v>
       </c>
       <c r="O691" s="2"/>
       <c r="P691" t="s" s="2">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>77</v>
@@ -81693,7 +81690,7 @@
         <v>77</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>78</v>
@@ -81713,10 +81710,10 @@
         <v>1203</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -81742,13 +81739,13 @@
         <v>622</v>
       </c>
       <c r="M692" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N692" t="s" s="2">
         <v>1746</v>
       </c>
-      <c r="N692" t="s" s="2">
+      <c r="O692" t="s" s="2">
         <v>1747</v>
-      </c>
-      <c r="O692" t="s" s="2">
-        <v>1748</v>
       </c>
       <c r="P692" t="s" s="2">
         <v>1194</v>
@@ -81800,7 +81797,7 @@
         <v>77</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>78</v>
@@ -81820,10 +81817,10 @@
         <v>1203</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -81923,10 +81920,10 @@
         <v>1203</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -82028,10 +82025,10 @@
         <v>1203</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -82091,7 +82088,7 @@
       </c>
       <c r="Z695" s="2"/>
       <c r="AA695" t="s" s="2">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AB695" t="s" s="2">
         <v>77</v>
@@ -82129,10 +82126,10 @@
         <v>1203</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -82236,10 +82233,10 @@
         <v>1203</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -82343,10 +82340,10 @@
         <v>1203</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -82448,10 +82445,10 @@
         <v>1203</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -82551,10 +82548,10 @@
         <v>1203</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -82580,14 +82577,14 @@
         <v>1145</v>
       </c>
       <c r="M700" t="s" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N700" t="s" s="2">
         <v>1757</v>
-      </c>
-      <c r="N700" t="s" s="2">
-        <v>1758</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" t="s" s="2">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q700" t="s" s="2">
         <v>77</v>
@@ -82636,7 +82633,7 @@
         <v>77</v>
       </c>
       <c r="AG700" t="s" s="2">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>78</v>
@@ -82656,10 +82653,10 @@
         <v>1203</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -82685,14 +82682,14 @@
         <v>149</v>
       </c>
       <c r="M701" t="s" s="2">
+        <v>1760</v>
+      </c>
+      <c r="N701" t="s" s="2">
         <v>1761</v>
-      </c>
-      <c r="N701" t="s" s="2">
-        <v>1762</v>
       </c>
       <c r="O701" s="2"/>
       <c r="P701" t="s" s="2">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Q701" t="s" s="2">
         <v>77</v>
@@ -82720,11 +82717,11 @@
         <v>304</v>
       </c>
       <c r="Z701" t="s" s="2">
+        <v>1763</v>
+      </c>
+      <c r="AA701" t="s" s="2">
         <v>1764</v>
       </c>
-      <c r="AA701" t="s" s="2">
-        <v>1765</v>
-      </c>
       <c r="AB701" t="s" s="2">
         <v>77</v>
       </c>
@@ -82741,7 +82738,7 @@
         <v>77</v>
       </c>
       <c r="AG701" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="AH701" t="s" s="2">
         <v>78</v>
@@ -82761,10 +82758,10 @@
         <v>1203</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -82790,14 +82787,14 @@
         <v>525</v>
       </c>
       <c r="M702" t="s" s="2">
+        <v>1766</v>
+      </c>
+      <c r="N702" t="s" s="2">
         <v>1767</v>
-      </c>
-      <c r="N702" t="s" s="2">
-        <v>1768</v>
       </c>
       <c r="O702" s="2"/>
       <c r="P702" t="s" s="2">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q702" t="s" s="2">
         <v>77</v>
@@ -82846,7 +82843,7 @@
         <v>77</v>
       </c>
       <c r="AG702" t="s" s="2">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AH702" t="s" s="2">
         <v>78</v>
@@ -82855,7 +82852,7 @@
         <v>84</v>
       </c>
       <c r="AJ702" t="s" s="2">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="AK702" t="s" s="2">
         <v>105</v>
@@ -82866,10 +82863,10 @@
         <v>1203</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -82895,10 +82892,10 @@
         <v>332</v>
       </c>
       <c r="M703" t="s" s="2">
+        <v>1771</v>
+      </c>
+      <c r="N703" t="s" s="2">
         <v>1772</v>
-      </c>
-      <c r="N703" t="s" s="2">
-        <v>1773</v>
       </c>
       <c r="O703" s="2"/>
       <c r="P703" s="2"/>
@@ -82949,7 +82946,7 @@
         <v>77</v>
       </c>
       <c r="AG703" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="AH703" t="s" s="2">
         <v>78</v>
@@ -82969,10 +82966,10 @@
         <v>1203</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -82998,16 +82995,16 @@
         <v>436</v>
       </c>
       <c r="M704" t="s" s="2">
+        <v>1774</v>
+      </c>
+      <c r="N704" t="s" s="2">
         <v>1775</v>
-      </c>
-      <c r="N704" t="s" s="2">
-        <v>1776</v>
       </c>
       <c r="O704" t="s" s="2">
         <v>1263</v>
       </c>
       <c r="P704" t="s" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="Q704" t="s" s="2">
         <v>77</v>
@@ -83056,7 +83053,7 @@
         <v>77</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>78</v>
@@ -83076,10 +83073,10 @@
         <v>1203</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -83179,10 +83176,10 @@
         <v>1203</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -83284,10 +83281,10 @@
         <v>1203</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -83391,10 +83388,10 @@
         <v>1203</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -83420,16 +83417,16 @@
         <v>122</v>
       </c>
       <c r="M708" t="s" s="2">
+        <v>1781</v>
+      </c>
+      <c r="N708" t="s" s="2">
         <v>1782</v>
       </c>
-      <c r="N708" t="s" s="2">
+      <c r="O708" t="s" s="2">
         <v>1783</v>
       </c>
-      <c r="O708" t="s" s="2">
+      <c r="P708" t="s" s="2">
         <v>1784</v>
-      </c>
-      <c r="P708" t="s" s="2">
-        <v>1785</v>
       </c>
       <c r="Q708" t="s" s="2">
         <v>77</v>
@@ -83460,7 +83457,7 @@
         <v>255</v>
       </c>
       <c r="AA708" t="s" s="2">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AB708" t="s" s="2">
         <v>77</v>
@@ -83478,7 +83475,7 @@
         <v>77</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>84</v>
@@ -83498,10 +83495,10 @@
         <v>1203</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -83601,10 +83598,10 @@
         <v>1203</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -83706,10 +83703,10 @@
         <v>1203</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -83813,10 +83810,10 @@
         <v>1203</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -83916,10 +83913,10 @@
         <v>1203</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -84021,10 +84018,10 @@
         <v>1203</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -84128,10 +84125,10 @@
         <v>1203</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -84233,10 +84230,10 @@
         <v>1203</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -84338,10 +84335,10 @@
         <v>1203</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -84443,10 +84440,10 @@
         <v>1203</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -84550,10 +84547,10 @@
         <v>1203</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -84657,10 +84654,10 @@
         <v>1203</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -84686,16 +84683,16 @@
         <v>160</v>
       </c>
       <c r="M720" t="s" s="2">
+        <v>1798</v>
+      </c>
+      <c r="N720" t="s" s="2">
         <v>1799</v>
       </c>
-      <c r="N720" t="s" s="2">
+      <c r="O720" t="s" s="2">
         <v>1800</v>
       </c>
-      <c r="O720" t="s" s="2">
+      <c r="P720" t="s" s="2">
         <v>1801</v>
-      </c>
-      <c r="P720" t="s" s="2">
-        <v>1802</v>
       </c>
       <c r="Q720" t="s" s="2">
         <v>77</v>
@@ -84744,7 +84741,7 @@
         <v>77</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>78</v>
@@ -84764,14 +84761,14 @@
         <v>1203</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" t="s" s="2">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F721" s="2"/>
       <c r="G721" t="s" s="2">
@@ -84790,16 +84787,16 @@
         <v>77</v>
       </c>
       <c r="L721" t="s" s="2">
+        <v>1804</v>
+      </c>
+      <c r="M721" t="s" s="2">
         <v>1805</v>
       </c>
-      <c r="M721" t="s" s="2">
+      <c r="N721" t="s" s="2">
         <v>1806</v>
       </c>
-      <c r="N721" t="s" s="2">
+      <c r="O721" t="s" s="2">
         <v>1807</v>
-      </c>
-      <c r="O721" t="s" s="2">
-        <v>1808</v>
       </c>
       <c r="P721" s="2"/>
       <c r="Q721" t="s" s="2">
@@ -84849,7 +84846,7 @@
         <v>77</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>78</v>
@@ -84869,10 +84866,10 @@
         <v>1203</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -84898,16 +84895,16 @@
         <v>568</v>
       </c>
       <c r="M722" t="s" s="2">
+        <v>1809</v>
+      </c>
+      <c r="N722" t="s" s="2">
         <v>1810</v>
       </c>
-      <c r="N722" t="s" s="2">
+      <c r="O722" t="s" s="2">
         <v>1811</v>
       </c>
-      <c r="O722" t="s" s="2">
+      <c r="P722" t="s" s="2">
         <v>1812</v>
-      </c>
-      <c r="P722" t="s" s="2">
-        <v>1813</v>
       </c>
       <c r="Q722" t="s" s="2">
         <v>77</v>
@@ -84956,7 +84953,7 @@
         <v>77</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>78</v>
@@ -84976,10 +84973,10 @@
         <v>1203</v>
       </c>
       <c r="B723" t="s" s="2">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C723" t="s" s="2">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" t="s" s="2">
@@ -85005,16 +85002,16 @@
         <v>436</v>
       </c>
       <c r="M723" t="s" s="2">
+        <v>1814</v>
+      </c>
+      <c r="N723" t="s" s="2">
         <v>1815</v>
       </c>
-      <c r="N723" t="s" s="2">
+      <c r="O723" t="s" s="2">
         <v>1816</v>
       </c>
-      <c r="O723" t="s" s="2">
+      <c r="P723" t="s" s="2">
         <v>1817</v>
-      </c>
-      <c r="P723" t="s" s="2">
-        <v>1818</v>
       </c>
       <c r="Q723" t="s" s="2">
         <v>77</v>
@@ -85063,7 +85060,7 @@
         <v>77</v>
       </c>
       <c r="AG723" t="s" s="2">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AH723" t="s" s="2">
         <v>78</v>
@@ -85083,10 +85080,10 @@
         <v>1203</v>
       </c>
       <c r="B724" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C724" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" t="s" s="2">
@@ -85186,10 +85183,10 @@
         <v>1203</v>
       </c>
       <c r="B725" t="s" s="2">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C725" t="s" s="2">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" t="s" s="2">
@@ -85291,10 +85288,10 @@
         <v>1203</v>
       </c>
       <c r="B726" t="s" s="2">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C726" t="s" s="2">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" t="s" s="2">
@@ -85398,10 +85395,10 @@
         <v>1203</v>
       </c>
       <c r="B727" t="s" s="2">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C727" t="s" s="2">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" t="s" s="2">
@@ -85424,16 +85421,16 @@
         <v>127</v>
       </c>
       <c r="L727" t="s" s="2">
+        <v>1822</v>
+      </c>
+      <c r="M727" t="s" s="2">
         <v>1823</v>
       </c>
-      <c r="M727" t="s" s="2">
+      <c r="N727" t="s" s="2">
         <v>1824</v>
       </c>
-      <c r="N727" t="s" s="2">
+      <c r="O727" t="s" s="2">
         <v>1825</v>
-      </c>
-      <c r="O727" t="s" s="2">
-        <v>1826</v>
       </c>
       <c r="P727" s="2"/>
       <c r="Q727" t="s" s="2">
@@ -85483,7 +85480,7 @@
         <v>77</v>
       </c>
       <c r="AG727" t="s" s="2">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AH727" t="s" s="2">
         <v>84</v>
@@ -85503,10 +85500,10 @@
         <v>1203</v>
       </c>
       <c r="B728" t="s" s="2">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C728" t="s" s="2">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D728" s="2"/>
       <c r="E728" t="s" s="2">
@@ -85532,10 +85529,10 @@
         <v>149</v>
       </c>
       <c r="M728" t="s" s="2">
+        <v>1827</v>
+      </c>
+      <c r="N728" t="s" s="2">
         <v>1828</v>
-      </c>
-      <c r="N728" t="s" s="2">
-        <v>1829</v>
       </c>
       <c r="O728" s="2"/>
       <c r="P728" s="2"/>
@@ -85565,11 +85562,11 @@
         <v>304</v>
       </c>
       <c r="Z728" t="s" s="2">
+        <v>1828</v>
+      </c>
+      <c r="AA728" t="s" s="2">
         <v>1829</v>
       </c>
-      <c r="AA728" t="s" s="2">
-        <v>1830</v>
-      </c>
       <c r="AB728" t="s" s="2">
         <v>77</v>
       </c>
@@ -85586,7 +85583,7 @@
         <v>77</v>
       </c>
       <c r="AG728" t="s" s="2">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AH728" t="s" s="2">
         <v>84</v>
@@ -85603,17 +85600,17 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C729" t="s" s="2">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" t="s" s="2">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F729" s="2"/>
       <c r="G729" t="s" s="2">
@@ -85635,10 +85632,10 @@
         <v>80</v>
       </c>
       <c r="M729" t="s" s="2">
+        <v>1838</v>
+      </c>
+      <c r="N729" t="s" s="2">
         <v>1839</v>
-      </c>
-      <c r="N729" t="s" s="2">
-        <v>1840</v>
       </c>
       <c r="O729" s="2"/>
       <c r="P729" s="2"/>
@@ -85689,7 +85686,7 @@
         <v>77</v>
       </c>
       <c r="AG729" t="s" s="2">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="AH729" t="s" s="2">
         <v>78</v>
@@ -85706,13 +85703,13 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B730" t="s" s="2">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C730" t="s" s="2">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D730" s="2"/>
       <c r="E730" t="s" s="2">
@@ -85738,7 +85735,7 @@
         <v>235</v>
       </c>
       <c r="M730" t="s" s="2">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="N730" t="s" s="2">
         <v>237</v>
@@ -85811,13 +85808,13 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B731" t="s" s="2">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C731" t="s" s="2">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D731" s="2"/>
       <c r="E731" t="s" s="2">
@@ -85914,13 +85911,13 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C732" t="s" s="2">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D732" s="2"/>
       <c r="E732" t="s" s="2">
@@ -86019,13 +86016,13 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C733" t="s" s="2">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D733" s="2"/>
       <c r="E733" t="s" s="2">
@@ -86124,13 +86121,13 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C734" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D734" s="2"/>
       <c r="E734" t="s" s="2">
@@ -86229,13 +86226,13 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B735" t="s" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C735" t="s" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D735" s="2"/>
       <c r="E735" t="s" s="2">
@@ -86334,13 +86331,13 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B736" t="s" s="2">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C736" t="s" s="2">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D736" s="2"/>
       <c r="E736" t="s" s="2">
@@ -86439,13 +86436,13 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D737" s="2"/>
       <c r="E737" t="s" s="2">
@@ -86546,13 +86543,13 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C738" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" t="s" s="2">
@@ -86578,10 +86575,10 @@
         <v>294</v>
       </c>
       <c r="M738" t="s" s="2">
+        <v>1850</v>
+      </c>
+      <c r="N738" t="s" s="2">
         <v>1851</v>
-      </c>
-      <c r="N738" t="s" s="2">
-        <v>1852</v>
       </c>
       <c r="O738" s="2"/>
       <c r="P738" s="2"/>
@@ -86632,7 +86629,7 @@
         <v>515</v>
       </c>
       <c r="AG738" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="AH738" t="s" s="2">
         <v>78</v>
@@ -86649,16 +86646,16 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B739" t="s" s="2">
+        <v>1852</v>
+      </c>
+      <c r="C739" t="s" s="2">
+        <v>1849</v>
+      </c>
+      <c r="D739" t="s" s="2">
         <v>1853</v>
-      </c>
-      <c r="C739" t="s" s="2">
-        <v>1850</v>
-      </c>
-      <c r="D739" t="s" s="2">
-        <v>1854</v>
       </c>
       <c r="E739" t="s" s="2">
         <v>77</v>
@@ -86683,10 +86680,10 @@
         <v>294</v>
       </c>
       <c r="M739" t="s" s="2">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="N739" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="O739" s="2"/>
       <c r="P739" s="2"/>
@@ -86737,7 +86734,7 @@
         <v>77</v>
       </c>
       <c r="AG739" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="AH739" t="s" s="2">
         <v>78</v>
@@ -86754,13 +86751,13 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B740" t="s" s="2">
+        <v>1855</v>
+      </c>
+      <c r="C740" t="s" s="2">
         <v>1856</v>
-      </c>
-      <c r="C740" t="s" s="2">
-        <v>1857</v>
       </c>
       <c r="D740" s="2"/>
       <c r="E740" t="s" s="2">
@@ -86857,13 +86854,13 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B741" t="s" s="2">
+        <v>1857</v>
+      </c>
+      <c r="C741" t="s" s="2">
         <v>1858</v>
-      </c>
-      <c r="C741" t="s" s="2">
-        <v>1859</v>
       </c>
       <c r="D741" s="2"/>
       <c r="E741" t="s" s="2">
@@ -86962,13 +86959,13 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B742" t="s" s="2">
+        <v>1859</v>
+      </c>
+      <c r="C742" t="s" s="2">
         <v>1860</v>
-      </c>
-      <c r="C742" t="s" s="2">
-        <v>1861</v>
       </c>
       <c r="D742" s="2"/>
       <c r="E742" t="s" s="2">
@@ -87069,13 +87066,13 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B743" t="s" s="2">
+        <v>1861</v>
+      </c>
+      <c r="C743" t="s" s="2">
         <v>1862</v>
-      </c>
-      <c r="C743" t="s" s="2">
-        <v>1863</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" t="s" s="2">
@@ -87176,13 +87173,13 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B744" t="s" s="2">
+        <v>1863</v>
+      </c>
+      <c r="C744" t="s" s="2">
         <v>1864</v>
-      </c>
-      <c r="C744" t="s" s="2">
-        <v>1865</v>
       </c>
       <c r="D744" s="2"/>
       <c r="E744" t="s" s="2">
@@ -87224,7 +87221,7 @@
       </c>
       <c r="R744" s="2"/>
       <c r="S744" t="s" s="2">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="T744" t="s" s="2">
         <v>77</v>
@@ -87283,13 +87280,13 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B745" t="s" s="2">
+        <v>1866</v>
+      </c>
+      <c r="C745" t="s" s="2">
         <v>1867</v>
-      </c>
-      <c r="C745" t="s" s="2">
-        <v>1868</v>
       </c>
       <c r="D745" s="2"/>
       <c r="E745" t="s" s="2">
@@ -87388,13 +87385,13 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B746" t="s" s="2">
+        <v>1868</v>
+      </c>
+      <c r="C746" t="s" s="2">
         <v>1869</v>
-      </c>
-      <c r="C746" t="s" s="2">
-        <v>1870</v>
       </c>
       <c r="D746" s="2"/>
       <c r="E746" t="s" s="2">
@@ -87491,13 +87488,13 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B747" t="s" s="2">
+        <v>1870</v>
+      </c>
+      <c r="C747" t="s" s="2">
         <v>1871</v>
-      </c>
-      <c r="C747" t="s" s="2">
-        <v>1872</v>
       </c>
       <c r="D747" s="2"/>
       <c r="E747" t="s" s="2">
@@ -87596,16 +87593,16 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B748" t="s" s="2">
+        <v>1872</v>
+      </c>
+      <c r="C748" t="s" s="2">
+        <v>1849</v>
+      </c>
+      <c r="D748" t="s" s="2">
         <v>1873</v>
-      </c>
-      <c r="C748" t="s" s="2">
-        <v>1850</v>
-      </c>
-      <c r="D748" t="s" s="2">
-        <v>1874</v>
       </c>
       <c r="E748" t="s" s="2">
         <v>77</v>
@@ -87630,10 +87627,10 @@
         <v>294</v>
       </c>
       <c r="M748" t="s" s="2">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="N748" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="O748" s="2"/>
       <c r="P748" s="2"/>
@@ -87684,7 +87681,7 @@
         <v>77</v>
       </c>
       <c r="AG748" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="AH748" t="s" s="2">
         <v>78</v>
@@ -87701,13 +87698,13 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B749" t="s" s="2">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C749" t="s" s="2">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" t="s" s="2">
@@ -87804,13 +87801,13 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C750" t="s" s="2">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" t="s" s="2">
@@ -87909,13 +87906,13 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B751" t="s" s="2">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C751" t="s" s="2">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" t="s" s="2">
@@ -88016,13 +88013,13 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B752" t="s" s="2">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C752" t="s" s="2">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" t="s" s="2">
@@ -88123,13 +88120,13 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C753" t="s" s="2">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D753" s="2"/>
       <c r="E753" t="s" s="2">
@@ -88171,7 +88168,7 @@
       </c>
       <c r="R753" s="2"/>
       <c r="S753" t="s" s="2">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="T753" t="s" s="2">
         <v>77</v>
@@ -88230,13 +88227,13 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B754" t="s" s="2">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C754" t="s" s="2">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D754" s="2"/>
       <c r="E754" t="s" s="2">
@@ -88335,13 +88332,13 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B755" t="s" s="2">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C755" t="s" s="2">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D755" s="2"/>
       <c r="E755" t="s" s="2">
@@ -88438,13 +88435,13 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B756" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C756" t="s" s="2">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D756" s="2"/>
       <c r="E756" t="s" s="2">
@@ -88543,13 +88540,13 @@
     </row>
     <row r="757">
       <c r="A757" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B757" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C757" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D757" s="2"/>
       <c r="E757" t="s" s="2">
@@ -88575,10 +88572,10 @@
         <v>160</v>
       </c>
       <c r="M757" t="s" s="2">
+        <v>1885</v>
+      </c>
+      <c r="N757" t="s" s="2">
         <v>1886</v>
-      </c>
-      <c r="N757" t="s" s="2">
-        <v>1887</v>
       </c>
       <c r="O757" t="s" s="2">
         <v>565</v>
@@ -88633,7 +88630,7 @@
         <v>77</v>
       </c>
       <c r="AG757" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="AH757" t="s" s="2">
         <v>78</v>
@@ -88650,13 +88647,13 @@
     </row>
     <row r="758">
       <c r="A758" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C758" t="s" s="2">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D758" s="2"/>
       <c r="E758" t="s" s="2">
@@ -88682,7 +88679,7 @@
         <v>122</v>
       </c>
       <c r="M758" t="s" s="2">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="N758" t="s" s="2">
         <v>354</v>
@@ -88734,7 +88731,7 @@
         <v>77</v>
       </c>
       <c r="AG758" t="s" s="2">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="AH758" t="s" s="2">
         <v>78</v>
@@ -88751,13 +88748,13 @@
     </row>
     <row r="759">
       <c r="A759" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C759" t="s" s="2">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D759" s="2"/>
       <c r="E759" t="s" s="2">
@@ -88783,7 +88780,7 @@
         <v>122</v>
       </c>
       <c r="M759" t="s" s="2">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="N759" t="s" s="2">
         <v>358</v>
@@ -88835,7 +88832,7 @@
         <v>77</v>
       </c>
       <c r="AG759" t="s" s="2">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="AH759" t="s" s="2">
         <v>78</v>
@@ -88852,13 +88849,13 @@
     </row>
     <row r="760">
       <c r="A760" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B760" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C760" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D760" s="2"/>
       <c r="E760" t="s" s="2">
@@ -88884,7 +88881,7 @@
         <v>122</v>
       </c>
       <c r="M760" t="s" s="2">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="N760" t="s" s="2">
         <v>363</v>
@@ -88938,7 +88935,7 @@
         <v>77</v>
       </c>
       <c r="AG760" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="AH760" t="s" s="2">
         <v>78</v>
@@ -88955,13 +88952,13 @@
     </row>
     <row r="761">
       <c r="A761" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C761" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D761" s="2"/>
       <c r="E761" t="s" s="2">
@@ -88984,16 +88981,16 @@
         <v>127</v>
       </c>
       <c r="L761" t="s" s="2">
+        <v>1894</v>
+      </c>
+      <c r="M761" t="s" s="2">
         <v>1895</v>
       </c>
-      <c r="M761" t="s" s="2">
+      <c r="N761" t="s" s="2">
         <v>1896</v>
       </c>
-      <c r="N761" t="s" s="2">
+      <c r="O761" t="s" s="2">
         <v>1897</v>
-      </c>
-      <c r="O761" t="s" s="2">
-        <v>1898</v>
       </c>
       <c r="P761" s="2"/>
       <c r="Q761" t="s" s="2">
@@ -89043,7 +89040,7 @@
         <v>77</v>
       </c>
       <c r="AG761" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="AH761" t="s" s="2">
         <v>84</v>
@@ -89055,18 +89052,18 @@
         <v>77</v>
       </c>
       <c r="AK761" t="s" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C762" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D762" s="2"/>
       <c r="E762" t="s" s="2">
@@ -89092,10 +89089,10 @@
         <v>332</v>
       </c>
       <c r="M762" t="s" s="2">
+        <v>1900</v>
+      </c>
+      <c r="N762" t="s" s="2">
         <v>1901</v>
-      </c>
-      <c r="N762" t="s" s="2">
-        <v>1902</v>
       </c>
       <c r="O762" s="2"/>
       <c r="P762" s="2"/>
@@ -89146,7 +89143,7 @@
         <v>77</v>
       </c>
       <c r="AG762" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AH762" t="s" s="2">
         <v>78</v>
@@ -89163,13 +89160,13 @@
     </row>
     <row r="763">
       <c r="A763" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B763" t="s" s="2">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C763" t="s" s="2">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D763" s="2"/>
       <c r="E763" t="s" s="2">
@@ -89195,10 +89192,10 @@
         <v>85</v>
       </c>
       <c r="M763" t="s" s="2">
+        <v>1903</v>
+      </c>
+      <c r="N763" t="s" s="2">
         <v>1904</v>
-      </c>
-      <c r="N763" t="s" s="2">
-        <v>1905</v>
       </c>
       <c r="O763" s="2"/>
       <c r="P763" s="2"/>
@@ -89249,7 +89246,7 @@
         <v>77</v>
       </c>
       <c r="AG763" t="s" s="2">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="AH763" t="s" s="2">
         <v>78</v>
@@ -89266,13 +89263,13 @@
     </row>
     <row r="764">
       <c r="A764" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B764" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C764" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D764" s="2"/>
       <c r="E764" t="s" s="2">
@@ -89298,10 +89295,10 @@
         <v>80</v>
       </c>
       <c r="M764" t="s" s="2">
+        <v>1912</v>
+      </c>
+      <c r="N764" t="s" s="2">
         <v>1913</v>
-      </c>
-      <c r="N764" t="s" s="2">
-        <v>1914</v>
       </c>
       <c r="O764" s="2"/>
       <c r="P764" s="2"/>
@@ -89352,7 +89349,7 @@
         <v>77</v>
       </c>
       <c r="AG764" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AH764" t="s" s="2">
         <v>78</v>
@@ -89369,13 +89366,13 @@
     </row>
     <row r="765">
       <c r="A765" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B765" t="s" s="2">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C765" t="s" s="2">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D765" s="2"/>
       <c r="E765" t="s" s="2">
@@ -89401,7 +89398,7 @@
         <v>235</v>
       </c>
       <c r="M765" t="s" s="2">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="N765" t="s" s="2">
         <v>237</v>
@@ -89474,13 +89471,13 @@
     </row>
     <row r="766">
       <c r="A766" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B766" t="s" s="2">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C766" t="s" s="2">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D766" s="2"/>
       <c r="E766" t="s" s="2">
@@ -89577,13 +89574,13 @@
     </row>
     <row r="767">
       <c r="A767" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B767" t="s" s="2">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C767" t="s" s="2">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D767" s="2"/>
       <c r="E767" t="s" s="2">
@@ -89682,13 +89679,13 @@
     </row>
     <row r="768">
       <c r="A768" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B768" t="s" s="2">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C768" t="s" s="2">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D768" s="2"/>
       <c r="E768" t="s" s="2">
@@ -89787,13 +89784,13 @@
     </row>
     <row r="769">
       <c r="A769" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B769" t="s" s="2">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C769" t="s" s="2">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D769" s="2"/>
       <c r="E769" t="s" s="2">
@@ -89892,13 +89889,13 @@
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B770" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C770" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" t="s" s="2">
@@ -89997,13 +89994,13 @@
     </row>
     <row r="771">
       <c r="A771" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B771" t="s" s="2">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C771" t="s" s="2">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" t="s" s="2">
@@ -90098,16 +90095,16 @@
     </row>
     <row r="772">
       <c r="A772" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B772" t="s" s="2">
+        <v>1922</v>
+      </c>
+      <c r="C772" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="D772" t="s" s="2">
         <v>1923</v>
-      </c>
-      <c r="C772" t="s" s="2">
-        <v>1922</v>
-      </c>
-      <c r="D772" t="s" s="2">
-        <v>1924</v>
       </c>
       <c r="E772" t="s" s="2">
         <v>77</v>
@@ -90129,10 +90126,10 @@
         <v>77</v>
       </c>
       <c r="L772" t="s" s="2">
+        <v>1924</v>
+      </c>
+      <c r="M772" t="s" s="2">
         <v>1925</v>
-      </c>
-      <c r="M772" t="s" s="2">
-        <v>1926</v>
       </c>
       <c r="N772" t="s" s="2">
         <v>184</v>
@@ -90203,16 +90200,16 @@
     </row>
     <row r="773">
       <c r="A773" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B773" t="s" s="2">
+        <v>1926</v>
+      </c>
+      <c r="C773" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="D773" t="s" s="2">
         <v>1927</v>
-      </c>
-      <c r="C773" t="s" s="2">
-        <v>1922</v>
-      </c>
-      <c r="D773" t="s" s="2">
-        <v>1928</v>
       </c>
       <c r="E773" t="s" s="2">
         <v>77</v>
@@ -90234,10 +90231,10 @@
         <v>77</v>
       </c>
       <c r="L773" t="s" s="2">
+        <v>1928</v>
+      </c>
+      <c r="M773" t="s" s="2">
         <v>1929</v>
-      </c>
-      <c r="M773" t="s" s="2">
-        <v>1930</v>
       </c>
       <c r="N773" t="s" s="2">
         <v>192</v>
@@ -90308,13 +90305,13 @@
     </row>
     <row r="774">
       <c r="A774" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B774" t="s" s="2">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C774" t="s" s="2">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D774" s="2"/>
       <c r="E774" t="s" s="2">
@@ -90415,13 +90412,13 @@
     </row>
     <row r="775">
       <c r="A775" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B775" t="s" s="2">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C775" t="s" s="2">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D775" s="2"/>
       <c r="E775" t="s" s="2">
@@ -90447,10 +90444,10 @@
         <v>294</v>
       </c>
       <c r="M775" t="s" s="2">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="N775" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="O775" s="2"/>
       <c r="P775" s="2"/>
@@ -90501,7 +90498,7 @@
         <v>77</v>
       </c>
       <c r="AG775" t="s" s="2">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="AH775" t="s" s="2">
         <v>78</v>
@@ -90518,13 +90515,13 @@
     </row>
     <row r="776">
       <c r="A776" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B776" t="s" s="2">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C776" t="s" s="2">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" t="s" s="2">
@@ -90621,13 +90618,13 @@
     </row>
     <row r="777">
       <c r="A777" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B777" t="s" s="2">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C777" t="s" s="2">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D777" s="2"/>
       <c r="E777" t="s" s="2">
@@ -90726,13 +90723,13 @@
     </row>
     <row r="778">
       <c r="A778" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B778" t="s" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C778" t="s" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D778" s="2"/>
       <c r="E778" t="s" s="2">
@@ -90833,13 +90830,13 @@
     </row>
     <row r="779">
       <c r="A779" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B779" t="s" s="2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C779" t="s" s="2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D779" s="2"/>
       <c r="E779" t="s" s="2">
@@ -90940,13 +90937,13 @@
     </row>
     <row r="780">
       <c r="A780" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B780" t="s" s="2">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C780" t="s" s="2">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D780" s="2"/>
       <c r="E780" t="s" s="2">
@@ -90988,7 +90985,7 @@
       </c>
       <c r="R780" s="2"/>
       <c r="S780" t="s" s="2">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T780" t="s" s="2">
         <v>77</v>
@@ -91047,13 +91044,13 @@
     </row>
     <row r="781">
       <c r="A781" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B781" t="s" s="2">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C781" t="s" s="2">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D781" s="2"/>
       <c r="E781" t="s" s="2">
@@ -91079,7 +91076,7 @@
         <v>85</v>
       </c>
       <c r="M781" t="s" s="2">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="N781" t="s" s="2">
         <v>327</v>
@@ -91152,13 +91149,13 @@
     </row>
     <row r="782">
       <c r="A782" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B782" t="s" s="2">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C782" t="s" s="2">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D782" s="2"/>
       <c r="E782" t="s" s="2">
@@ -91255,13 +91252,13 @@
     </row>
     <row r="783">
       <c r="A783" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B783" t="s" s="2">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C783" t="s" s="2">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D783" s="2"/>
       <c r="E783" t="s" s="2">
@@ -91360,13 +91357,13 @@
     </row>
     <row r="784">
       <c r="A784" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B784" t="s" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C784" t="s" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D784" s="2"/>
       <c r="E784" t="s" s="2">
@@ -91444,7 +91441,7 @@
         <v>77</v>
       </c>
       <c r="AG784" t="s" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AH784" t="s" s="2">
         <v>78</v>
@@ -91461,13 +91458,13 @@
     </row>
     <row r="785">
       <c r="A785" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B785" t="s" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C785" t="s" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" t="s" s="2">
@@ -91493,10 +91490,10 @@
         <v>122</v>
       </c>
       <c r="M785" t="s" s="2">
+        <v>1945</v>
+      </c>
+      <c r="N785" t="s" s="2">
         <v>1946</v>
-      </c>
-      <c r="N785" t="s" s="2">
-        <v>1947</v>
       </c>
       <c r="O785" s="2"/>
       <c r="P785" s="2"/>
@@ -91545,7 +91542,7 @@
         <v>77</v>
       </c>
       <c r="AG785" t="s" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AH785" t="s" s="2">
         <v>78</v>
@@ -91562,13 +91559,13 @@
     </row>
     <row r="786">
       <c r="A786" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B786" t="s" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C786" t="s" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" t="s" s="2">
@@ -91665,13 +91662,13 @@
     </row>
     <row r="787">
       <c r="A787" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B787" t="s" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C787" t="s" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" t="s" s="2">
@@ -91770,13 +91767,13 @@
     </row>
     <row r="788">
       <c r="A788" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B788" t="s" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C788" t="s" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" t="s" s="2">
@@ -91802,7 +91799,7 @@
         <v>128</v>
       </c>
       <c r="M788" t="s" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="N788" t="s" s="2">
         <v>130</v>
@@ -91877,13 +91874,13 @@
     </row>
     <row r="789">
       <c r="A789" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B789" t="s" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C789" t="s" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" t="s" s="2">
@@ -91980,13 +91977,13 @@
     </row>
     <row r="790">
       <c r="A790" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B790" t="s" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C790" t="s" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" t="s" s="2">
@@ -92085,13 +92082,13 @@
     </row>
     <row r="791">
       <c r="A791" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B791" t="s" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C791" t="s" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" t="s" s="2">
@@ -92192,13 +92189,13 @@
     </row>
     <row r="792">
       <c r="A792" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B792" t="s" s="2">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C792" t="s" s="2">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D792" s="2"/>
       <c r="E792" t="s" s="2">
@@ -92297,13 +92294,13 @@
     </row>
     <row r="793">
       <c r="A793" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B793" t="s" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C793" t="s" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D793" s="2"/>
       <c r="E793" t="s" s="2">
@@ -92402,13 +92399,13 @@
     </row>
     <row r="794">
       <c r="A794" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B794" t="s" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C794" t="s" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D794" s="2"/>
       <c r="E794" t="s" s="2">
@@ -92507,13 +92504,13 @@
     </row>
     <row r="795">
       <c r="A795" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B795" t="s" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C795" t="s" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D795" s="2"/>
       <c r="E795" t="s" s="2">
@@ -92614,13 +92611,13 @@
     </row>
     <row r="796">
       <c r="A796" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B796" t="s" s="2">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C796" t="s" s="2">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D796" s="2"/>
       <c r="E796" t="s" s="2">
@@ -92721,13 +92718,13 @@
     </row>
     <row r="797">
       <c r="A797" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B797" t="s" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C797" t="s" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D797" s="2"/>
       <c r="E797" t="s" s="2">
@@ -92807,7 +92804,7 @@
         <v>77</v>
       </c>
       <c r="AG797" t="s" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AH797" t="s" s="2">
         <v>78</v>
@@ -92824,13 +92821,13 @@
     </row>
     <row r="798">
       <c r="A798" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B798" t="s" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C798" t="s" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D798" s="2"/>
       <c r="E798" t="s" s="2">
@@ -92856,10 +92853,10 @@
         <v>122</v>
       </c>
       <c r="M798" t="s" s="2">
+        <v>1961</v>
+      </c>
+      <c r="N798" t="s" s="2">
         <v>1962</v>
-      </c>
-      <c r="N798" t="s" s="2">
-        <v>1963</v>
       </c>
       <c r="O798" s="2"/>
       <c r="P798" s="2"/>
@@ -92890,7 +92887,7 @@
       </c>
       <c r="Z798" s="2"/>
       <c r="AA798" t="s" s="2">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="AB798" t="s" s="2">
         <v>77</v>
@@ -92908,7 +92905,7 @@
         <v>77</v>
       </c>
       <c r="AG798" t="s" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AH798" t="s" s="2">
         <v>78</v>
@@ -92925,13 +92922,13 @@
     </row>
     <row r="799">
       <c r="A799" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B799" t="s" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C799" t="s" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D799" s="2"/>
       <c r="E799" t="s" s="2">
@@ -92954,13 +92951,13 @@
         <v>127</v>
       </c>
       <c r="L799" t="s" s="2">
+        <v>1965</v>
+      </c>
+      <c r="M799" t="s" s="2">
         <v>1966</v>
       </c>
-      <c r="M799" t="s" s="2">
+      <c r="N799" t="s" s="2">
         <v>1967</v>
-      </c>
-      <c r="N799" t="s" s="2">
-        <v>1968</v>
       </c>
       <c r="O799" s="2"/>
       <c r="P799" s="2"/>
@@ -93011,7 +93008,7 @@
         <v>77</v>
       </c>
       <c r="AG799" t="s" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="AH799" t="s" s="2">
         <v>84</v>
@@ -93028,13 +93025,13 @@
     </row>
     <row r="800">
       <c r="A800" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B800" t="s" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C800" t="s" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D800" s="2"/>
       <c r="E800" t="s" s="2">
@@ -93060,10 +93057,10 @@
         <v>149</v>
       </c>
       <c r="M800" t="s" s="2">
+        <v>1969</v>
+      </c>
+      <c r="N800" t="s" s="2">
         <v>1970</v>
-      </c>
-      <c r="N800" t="s" s="2">
-        <v>1971</v>
       </c>
       <c r="O800" s="2"/>
       <c r="P800" s="2"/>
@@ -93094,7 +93091,7 @@
       </c>
       <c r="Z800" s="2"/>
       <c r="AA800" t="s" s="2">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="AB800" t="s" s="2">
         <v>77</v>
@@ -93112,7 +93109,7 @@
         <v>77</v>
       </c>
       <c r="AG800" t="s" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="AH800" t="s" s="2">
         <v>84</v>
@@ -93129,13 +93126,13 @@
     </row>
     <row r="801">
       <c r="A801" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B801" t="s" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C801" t="s" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D801" s="2"/>
       <c r="E801" t="s" s="2">
@@ -93161,10 +93158,10 @@
         <v>405</v>
       </c>
       <c r="M801" t="s" s="2">
+        <v>1973</v>
+      </c>
+      <c r="N801" t="s" s="2">
         <v>1974</v>
-      </c>
-      <c r="N801" t="s" s="2">
-        <v>1975</v>
       </c>
       <c r="O801" s="2"/>
       <c r="P801" s="2"/>
@@ -93215,7 +93212,7 @@
         <v>77</v>
       </c>
       <c r="AG801" t="s" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="AH801" t="s" s="2">
         <v>84</v>
@@ -93232,13 +93229,13 @@
     </row>
     <row r="802">
       <c r="A802" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B802" t="s" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C802" t="s" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D802" s="2"/>
       <c r="E802" t="s" s="2">
@@ -93264,10 +93261,10 @@
         <v>405</v>
       </c>
       <c r="M802" t="s" s="2">
+        <v>1976</v>
+      </c>
+      <c r="N802" t="s" s="2">
         <v>1977</v>
-      </c>
-      <c r="N802" t="s" s="2">
-        <v>1978</v>
       </c>
       <c r="O802" s="2"/>
       <c r="P802" s="2"/>
@@ -93318,7 +93315,7 @@
         <v>77</v>
       </c>
       <c r="AG802" t="s" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="AH802" t="s" s="2">
         <v>84</v>
@@ -93335,13 +93332,13 @@
     </row>
     <row r="803">
       <c r="A803" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B803" t="s" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C803" t="s" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D803" s="2"/>
       <c r="E803" t="s" s="2">
@@ -93367,10 +93364,10 @@
         <v>160</v>
       </c>
       <c r="M803" t="s" s="2">
+        <v>1979</v>
+      </c>
+      <c r="N803" t="s" s="2">
         <v>1980</v>
-      </c>
-      <c r="N803" t="s" s="2">
-        <v>1981</v>
       </c>
       <c r="O803" s="2"/>
       <c r="P803" s="2"/>
@@ -93378,7 +93375,7 @@
         <v>77</v>
       </c>
       <c r="R803" t="s" s="2">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="S803" t="s" s="2">
         <v>77</v>
@@ -93423,7 +93420,7 @@
         <v>77</v>
       </c>
       <c r="AG803" t="s" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="AH803" t="s" s="2">
         <v>78</v>
@@ -93440,13 +93437,13 @@
     </row>
     <row r="804">
       <c r="A804" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B804" t="s" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C804" t="s" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D804" s="2"/>
       <c r="E804" t="s" s="2">
@@ -93472,10 +93469,10 @@
         <v>85</v>
       </c>
       <c r="M804" t="s" s="2">
+        <v>1983</v>
+      </c>
+      <c r="N804" t="s" s="2">
         <v>1984</v>
-      </c>
-      <c r="N804" t="s" s="2">
-        <v>1985</v>
       </c>
       <c r="O804" s="2"/>
       <c r="P804" s="2"/>
@@ -93526,7 +93523,7 @@
         <v>77</v>
       </c>
       <c r="AG804" t="s" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="AH804" t="s" s="2">
         <v>78</v>

--- a/site/all-profiles.xlsx
+++ b/site/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9130,17 +9130,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="66.21484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="41.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="33.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="68.4375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9149,21 +9149,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="57.765625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="41.36328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="69.9609375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="39.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.22265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="57.890625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="40.5859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="70.0390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -44416,7 +44416,7 @@
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H338" t="s" s="2">
         <v>84</v>

--- a/site/all-profiles.xlsx
+++ b/site/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25789" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25789" uniqueCount="1925">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/language</t>
+    <t>http://terminology.hl7.org/CodeSystem/language</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1155,7 +1155,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() implies slot.empty()}</t>
+walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'http://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() implies slot.empty()}</t>
   </si>
   <si>
     <t>Appointment.appointmentType.id</t>
@@ -1176,7 +1176,7 @@
     <t>Appointment.appointmentType.coding.system</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/v2-0276</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0276</t>
   </si>
   <si>
     <t>Appointment.appointmentType.coding.version</t>
@@ -1464,7 +1464,7 @@
     <t>Participation status of the actor.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/participationstatus</t>
+    <t>http://hl7.org/fhir/ValueSet/participationstatus</t>
   </si>
   <si>
     <t>Appointment.participant.period</t>
@@ -1835,7 +1835,7 @@
     <t>HealthcareService.category.coding.system</t>
   </si>
   <si>
-    <t>https://snomed.info/sct</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>HealthcareService.category.coding.version</t>
@@ -2087,7 +2087,7 @@
     <t>HealthcareService.characteristic.coding.system</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/fhir/service-mode</t>
+    <t>http://terminology.hl7.org/fhir/service-mode</t>
   </si>
   <si>
     <t>HealthcareService.characteristic.coding.version</t>
@@ -2586,7 +2586,7 @@
     <t>Location.type.coding.system</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
+    <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
   </si>
   <si>
     <t>Location.type:outpatientPharmacy.coding.version</t>
@@ -3443,7 +3443,7 @@
     <t>Organization.type.coding.system</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/organization-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
   </si>
   <si>
     <t>Organization.type.coding.version</t>
@@ -4420,7 +4420,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-medme-pcid-system-check:If PCID system is present, type code must be PT {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').all(type.coding.where(system='https://terminology.hl7.org/CodeSystem/v2-0203' and code='PT').exists())}medme-pcid-count:Maximum one PCID identifier allowed {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').count() &lt;= 1}</t>
+medme-pcid-system-check:If PCID system is present, type code must be PT {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').all(type.coding.where(system='http://terminology.hl7.org/CodeSystem/v2-0203' and code='PT').exists())}medme-pcid-count:Maximum one PCID identifier allowed {where(system = 'https://fhir.medmehealth.com/pharmacy-services/systems/entity/patient/pc-id').count() &lt;= 1}</t>
   </si>
   <si>
     <t>Patient.identifier:JHN</t>
@@ -4589,7 +4589,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
     &lt;code value="MR"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -4634,7 +4634,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
     &lt;code value="JHN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -4876,7 +4876,7 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/contact-point-system</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
   </si>
   <si>
     <t>Patient.telecom.value</t>
@@ -4885,7 +4885,7 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/contact-point-use</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
   </si>
   <si>
     <t>Patient.telecom.rank</t>
@@ -4927,7 +4927,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/administrative-gender</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
@@ -5169,9 +5169,6 @@
     <t>Patient.contact.relationship.coding.system</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
-  </si>
-  <si>
     <t>Patient.contact.relationship.coding.version</t>
   </si>
   <si>
@@ -5927,7 +5924,7 @@
     <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/slotstatus</t>
+    <t>http://hl7.org/fhir/ValueSet/slotstatus</t>
   </si>
   <si>
     <t>Slot.start</t>
@@ -8803,7 +8800,7 @@
         <v>2</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="350">
@@ -8811,7 +8808,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="351">
@@ -8827,7 +8824,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="353">
@@ -8835,7 +8832,7 @@
         <v>10</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="354">
@@ -8889,7 +8886,7 @@
         <v>23</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="361">
@@ -8925,7 +8922,7 @@
         <v>31</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="366">
@@ -8933,7 +8930,7 @@
         <v>33</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="367">
@@ -8965,7 +8962,7 @@
         <v>2</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="371">
@@ -8973,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="372">
@@ -8989,7 +8986,7 @@
         <v>8</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="374">
@@ -8997,7 +8994,7 @@
         <v>10</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="375">
@@ -9051,7 +9048,7 @@
         <v>23</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="382">
@@ -9087,7 +9084,7 @@
         <v>31</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="387">
@@ -9095,7 +9092,7 @@
         <v>33</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="388">
@@ -9130,17 +9127,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="68.4375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.40625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="66.21484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="41.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="33.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9149,21 +9146,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="57.890625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="40.5859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="70.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="56.9609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="41.36328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="69.9609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="39.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.22265625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -75478,7 +75475,7 @@
       </c>
       <c r="R634" s="2"/>
       <c r="S634" t="s" s="2">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="T634" t="s" s="2">
         <v>77</v>
@@ -75540,10 +75537,10 @@
         <v>1203</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -75645,10 +75642,10 @@
         <v>1203</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75750,10 +75747,10 @@
         <v>1203</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -75855,10 +75852,10 @@
         <v>1203</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -75962,10 +75959,10 @@
         <v>1203</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -76069,10 +76066,10 @@
         <v>1203</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -76098,14 +76095,14 @@
         <v>1187</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>1670</v>
+      </c>
+      <c r="N640" t="s" s="2">
         <v>1671</v>
-      </c>
-      <c r="N640" t="s" s="2">
-        <v>1672</v>
       </c>
       <c r="O640" s="2"/>
       <c r="P640" t="s" s="2">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>77</v>
@@ -76154,7 +76151,7 @@
         <v>77</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>78</v>
@@ -76174,10 +76171,10 @@
         <v>1203</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -76277,10 +76274,10 @@
         <v>1203</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -76382,10 +76379,10 @@
         <v>1203</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -76489,10 +76486,10 @@
         <v>1203</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -76521,10 +76518,10 @@
         <v>1519</v>
       </c>
       <c r="N644" t="s" s="2">
+        <v>1677</v>
+      </c>
+      <c r="O644" t="s" s="2">
         <v>1678</v>
-      </c>
-      <c r="O644" t="s" s="2">
-        <v>1679</v>
       </c>
       <c r="P644" t="s" s="2">
         <v>939</v>
@@ -76596,10 +76593,10 @@
         <v>1203</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -76701,10 +76698,10 @@
         <v>1203</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -76806,10 +76803,10 @@
         <v>1203</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -76909,10 +76906,10 @@
         <v>1203</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -77012,10 +77009,10 @@
         <v>1203</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -77117,10 +77114,10 @@
         <v>1203</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -77146,13 +77143,13 @@
         <v>622</v>
       </c>
       <c r="M650" t="s" s="2">
+        <v>1685</v>
+      </c>
+      <c r="N650" t="s" s="2">
         <v>1686</v>
       </c>
-      <c r="N650" t="s" s="2">
+      <c r="O650" t="s" s="2">
         <v>1687</v>
-      </c>
-      <c r="O650" t="s" s="2">
-        <v>1688</v>
       </c>
       <c r="P650" t="s" s="2">
         <v>1194</v>
@@ -77204,7 +77201,7 @@
         <v>77</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>78</v>
@@ -77224,10 +77221,10 @@
         <v>1203</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -77327,10 +77324,10 @@
         <v>1203</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -77432,10 +77429,10 @@
         <v>1203</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -77533,10 +77530,10 @@
         <v>1203</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -77640,10 +77637,10 @@
         <v>1203</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -77747,10 +77744,10 @@
         <v>1203</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -77852,10 +77849,10 @@
         <v>1203</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -77955,10 +77952,10 @@
         <v>1203</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -77984,14 +77981,14 @@
         <v>1145</v>
       </c>
       <c r="M658" t="s" s="2">
+        <v>1696</v>
+      </c>
+      <c r="N658" t="s" s="2">
         <v>1697</v>
-      </c>
-      <c r="N658" t="s" s="2">
-        <v>1698</v>
       </c>
       <c r="O658" s="2"/>
       <c r="P658" t="s" s="2">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="Q658" t="s" s="2">
         <v>77</v>
@@ -78040,7 +78037,7 @@
         <v>77</v>
       </c>
       <c r="AG658" t="s" s="2">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AH658" t="s" s="2">
         <v>78</v>
@@ -78060,10 +78057,10 @@
         <v>1203</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -78089,14 +78086,14 @@
         <v>149</v>
       </c>
       <c r="M659" t="s" s="2">
+        <v>1700</v>
+      </c>
+      <c r="N659" t="s" s="2">
         <v>1701</v>
-      </c>
-      <c r="N659" t="s" s="2">
-        <v>1702</v>
       </c>
       <c r="O659" s="2"/>
       <c r="P659" t="s" s="2">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="Q659" t="s" s="2">
         <v>77</v>
@@ -78124,11 +78121,11 @@
         <v>304</v>
       </c>
       <c r="Z659" t="s" s="2">
+        <v>1703</v>
+      </c>
+      <c r="AA659" t="s" s="2">
         <v>1704</v>
       </c>
-      <c r="AA659" t="s" s="2">
-        <v>1705</v>
-      </c>
       <c r="AB659" t="s" s="2">
         <v>77</v>
       </c>
@@ -78145,7 +78142,7 @@
         <v>77</v>
       </c>
       <c r="AG659" t="s" s="2">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AH659" t="s" s="2">
         <v>78</v>
@@ -78165,10 +78162,10 @@
         <v>1203</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -78194,14 +78191,14 @@
         <v>525</v>
       </c>
       <c r="M660" t="s" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N660" t="s" s="2">
         <v>1707</v>
-      </c>
-      <c r="N660" t="s" s="2">
-        <v>1708</v>
       </c>
       <c r="O660" s="2"/>
       <c r="P660" t="s" s="2">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="Q660" t="s" s="2">
         <v>77</v>
@@ -78250,7 +78247,7 @@
         <v>77</v>
       </c>
       <c r="AG660" t="s" s="2">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="AH660" t="s" s="2">
         <v>78</v>
@@ -78259,7 +78256,7 @@
         <v>84</v>
       </c>
       <c r="AJ660" t="s" s="2">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="AK660" t="s" s="2">
         <v>105</v>
@@ -78270,10 +78267,10 @@
         <v>1203</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -78299,10 +78296,10 @@
         <v>332</v>
       </c>
       <c r="M661" t="s" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N661" t="s" s="2">
         <v>1712</v>
-      </c>
-      <c r="N661" t="s" s="2">
-        <v>1713</v>
       </c>
       <c r="O661" s="2"/>
       <c r="P661" s="2"/>
@@ -78353,7 +78350,7 @@
         <v>77</v>
       </c>
       <c r="AG661" t="s" s="2">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="AH661" t="s" s="2">
         <v>78</v>
@@ -78373,10 +78370,10 @@
         <v>1203</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -78402,16 +78399,16 @@
         <v>436</v>
       </c>
       <c r="M662" t="s" s="2">
+        <v>1714</v>
+      </c>
+      <c r="N662" t="s" s="2">
         <v>1715</v>
-      </c>
-      <c r="N662" t="s" s="2">
-        <v>1716</v>
       </c>
       <c r="O662" t="s" s="2">
         <v>1263</v>
       </c>
       <c r="P662" t="s" s="2">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="Q662" t="s" s="2">
         <v>77</v>
@@ -78460,7 +78457,7 @@
         <v>77</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>78</v>
@@ -78480,10 +78477,10 @@
         <v>1203</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -78583,10 +78580,10 @@
         <v>1203</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -78688,10 +78685,10 @@
         <v>1203</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -78795,10 +78792,10 @@
         <v>1203</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
@@ -78824,16 +78821,16 @@
         <v>122</v>
       </c>
       <c r="M666" t="s" s="2">
+        <v>1721</v>
+      </c>
+      <c r="N666" t="s" s="2">
         <v>1722</v>
       </c>
-      <c r="N666" t="s" s="2">
+      <c r="O666" t="s" s="2">
         <v>1723</v>
       </c>
-      <c r="O666" t="s" s="2">
+      <c r="P666" t="s" s="2">
         <v>1724</v>
-      </c>
-      <c r="P666" t="s" s="2">
-        <v>1725</v>
       </c>
       <c r="Q666" t="s" s="2">
         <v>77</v>
@@ -78864,7 +78861,7 @@
         <v>255</v>
       </c>
       <c r="AA666" t="s" s="2">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AB666" t="s" s="2">
         <v>77</v>
@@ -78882,7 +78879,7 @@
         <v>77</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>84</v>
@@ -78902,10 +78899,10 @@
         <v>1203</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -79005,10 +79002,10 @@
         <v>1203</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -79110,10 +79107,10 @@
         <v>1203</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
@@ -79217,10 +79214,10 @@
         <v>1203</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
@@ -79320,10 +79317,10 @@
         <v>1203</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -79425,10 +79422,10 @@
         <v>1203</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
@@ -79532,10 +79529,10 @@
         <v>1203</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -79637,10 +79634,10 @@
         <v>1203</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -79742,10 +79739,10 @@
         <v>1203</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -79847,10 +79844,10 @@
         <v>1203</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -79954,10 +79951,10 @@
         <v>1203</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -80061,10 +80058,10 @@
         <v>1203</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -80090,16 +80087,16 @@
         <v>160</v>
       </c>
       <c r="M678" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N678" t="s" s="2">
         <v>1739</v>
       </c>
-      <c r="N678" t="s" s="2">
+      <c r="O678" t="s" s="2">
         <v>1740</v>
       </c>
-      <c r="O678" t="s" s="2">
+      <c r="P678" t="s" s="2">
         <v>1741</v>
-      </c>
-      <c r="P678" t="s" s="2">
-        <v>1742</v>
       </c>
       <c r="Q678" t="s" s="2">
         <v>77</v>
@@ -80148,7 +80145,7 @@
         <v>77</v>
       </c>
       <c r="AG678" t="s" s="2">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="AH678" t="s" s="2">
         <v>78</v>
@@ -80168,14 +80165,14 @@
         <v>1203</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F679" s="2"/>
       <c r="G679" t="s" s="2">
@@ -80194,16 +80191,16 @@
         <v>77</v>
       </c>
       <c r="L679" t="s" s="2">
+        <v>1744</v>
+      </c>
+      <c r="M679" t="s" s="2">
         <v>1745</v>
       </c>
-      <c r="M679" t="s" s="2">
+      <c r="N679" t="s" s="2">
         <v>1746</v>
       </c>
-      <c r="N679" t="s" s="2">
+      <c r="O679" t="s" s="2">
         <v>1747</v>
-      </c>
-      <c r="O679" t="s" s="2">
-        <v>1748</v>
       </c>
       <c r="P679" s="2"/>
       <c r="Q679" t="s" s="2">
@@ -80253,7 +80250,7 @@
         <v>77</v>
       </c>
       <c r="AG679" t="s" s="2">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="AH679" t="s" s="2">
         <v>78</v>
@@ -80273,10 +80270,10 @@
         <v>1203</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -80302,16 +80299,16 @@
         <v>568</v>
       </c>
       <c r="M680" t="s" s="2">
+        <v>1749</v>
+      </c>
+      <c r="N680" t="s" s="2">
         <v>1750</v>
       </c>
-      <c r="N680" t="s" s="2">
+      <c r="O680" t="s" s="2">
         <v>1751</v>
       </c>
-      <c r="O680" t="s" s="2">
+      <c r="P680" t="s" s="2">
         <v>1752</v>
-      </c>
-      <c r="P680" t="s" s="2">
-        <v>1753</v>
       </c>
       <c r="Q680" t="s" s="2">
         <v>77</v>
@@ -80360,7 +80357,7 @@
         <v>77</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>78</v>
@@ -80380,10 +80377,10 @@
         <v>1203</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -80409,16 +80406,16 @@
         <v>436</v>
       </c>
       <c r="M681" t="s" s="2">
+        <v>1754</v>
+      </c>
+      <c r="N681" t="s" s="2">
         <v>1755</v>
       </c>
-      <c r="N681" t="s" s="2">
+      <c r="O681" t="s" s="2">
         <v>1756</v>
       </c>
-      <c r="O681" t="s" s="2">
+      <c r="P681" t="s" s="2">
         <v>1757</v>
-      </c>
-      <c r="P681" t="s" s="2">
-        <v>1758</v>
       </c>
       <c r="Q681" t="s" s="2">
         <v>77</v>
@@ -80467,7 +80464,7 @@
         <v>77</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>78</v>
@@ -80487,10 +80484,10 @@
         <v>1203</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -80590,10 +80587,10 @@
         <v>1203</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -80695,10 +80692,10 @@
         <v>1203</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -80802,10 +80799,10 @@
         <v>1203</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -80828,16 +80825,16 @@
         <v>127</v>
       </c>
       <c r="L685" t="s" s="2">
+        <v>1762</v>
+      </c>
+      <c r="M685" t="s" s="2">
         <v>1763</v>
       </c>
-      <c r="M685" t="s" s="2">
+      <c r="N685" t="s" s="2">
         <v>1764</v>
       </c>
-      <c r="N685" t="s" s="2">
+      <c r="O685" t="s" s="2">
         <v>1765</v>
-      </c>
-      <c r="O685" t="s" s="2">
-        <v>1766</v>
       </c>
       <c r="P685" s="2"/>
       <c r="Q685" t="s" s="2">
@@ -80887,7 +80884,7 @@
         <v>77</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>84</v>
@@ -80907,10 +80904,10 @@
         <v>1203</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -80936,10 +80933,10 @@
         <v>149</v>
       </c>
       <c r="M686" t="s" s="2">
+        <v>1767</v>
+      </c>
+      <c r="N686" t="s" s="2">
         <v>1768</v>
-      </c>
-      <c r="N686" t="s" s="2">
-        <v>1769</v>
       </c>
       <c r="O686" s="2"/>
       <c r="P686" s="2"/>
@@ -80969,11 +80966,11 @@
         <v>304</v>
       </c>
       <c r="Z686" t="s" s="2">
+        <v>1768</v>
+      </c>
+      <c r="AA686" t="s" s="2">
         <v>1769</v>
       </c>
-      <c r="AA686" t="s" s="2">
-        <v>1770</v>
-      </c>
       <c r="AB686" t="s" s="2">
         <v>77</v>
       </c>
@@ -80990,7 +80987,7 @@
         <v>77</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>84</v>
@@ -81007,17 +81004,17 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F687" s="2"/>
       <c r="G687" t="s" s="2">
@@ -81039,10 +81036,10 @@
         <v>80</v>
       </c>
       <c r="M687" t="s" s="2">
+        <v>1778</v>
+      </c>
+      <c r="N687" t="s" s="2">
         <v>1779</v>
-      </c>
-      <c r="N687" t="s" s="2">
-        <v>1780</v>
       </c>
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
@@ -81093,7 +81090,7 @@
         <v>77</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>78</v>
@@ -81110,13 +81107,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -81142,7 +81139,7 @@
         <v>235</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="N688" t="s" s="2">
         <v>237</v>
@@ -81215,13 +81212,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -81318,13 +81315,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -81423,13 +81420,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -81528,13 +81525,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -81633,13 +81630,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -81738,13 +81735,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -81843,13 +81840,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -81950,13 +81947,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -81982,10 +81979,10 @@
         <v>294</v>
       </c>
       <c r="M696" t="s" s="2">
+        <v>1790</v>
+      </c>
+      <c r="N696" t="s" s="2">
         <v>1791</v>
-      </c>
-      <c r="N696" t="s" s="2">
-        <v>1792</v>
       </c>
       <c r="O696" s="2"/>
       <c r="P696" s="2"/>
@@ -82036,7 +82033,7 @@
         <v>515</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>78</v>
@@ -82053,16 +82050,16 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B697" t="s" s="2">
+        <v>1792</v>
+      </c>
+      <c r="C697" t="s" s="2">
+        <v>1789</v>
+      </c>
+      <c r="D697" t="s" s="2">
         <v>1793</v>
-      </c>
-      <c r="C697" t="s" s="2">
-        <v>1790</v>
-      </c>
-      <c r="D697" t="s" s="2">
-        <v>1794</v>
       </c>
       <c r="E697" t="s" s="2">
         <v>77</v>
@@ -82087,10 +82084,10 @@
         <v>294</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="O697" s="2"/>
       <c r="P697" s="2"/>
@@ -82141,7 +82138,7 @@
         <v>77</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>78</v>
@@ -82158,13 +82155,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B698" t="s" s="2">
+        <v>1795</v>
+      </c>
+      <c r="C698" t="s" s="2">
         <v>1796</v>
-      </c>
-      <c r="C698" t="s" s="2">
-        <v>1797</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -82261,13 +82258,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B699" t="s" s="2">
+        <v>1797</v>
+      </c>
+      <c r="C699" t="s" s="2">
         <v>1798</v>
-      </c>
-      <c r="C699" t="s" s="2">
-        <v>1799</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -82366,13 +82363,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B700" t="s" s="2">
+        <v>1799</v>
+      </c>
+      <c r="C700" t="s" s="2">
         <v>1800</v>
-      </c>
-      <c r="C700" t="s" s="2">
-        <v>1801</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -82473,13 +82470,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B701" t="s" s="2">
+        <v>1801</v>
+      </c>
+      <c r="C701" t="s" s="2">
         <v>1802</v>
-      </c>
-      <c r="C701" t="s" s="2">
-        <v>1803</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -82580,13 +82577,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B702" t="s" s="2">
+        <v>1803</v>
+      </c>
+      <c r="C702" t="s" s="2">
         <v>1804</v>
-      </c>
-      <c r="C702" t="s" s="2">
-        <v>1805</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -82628,7 +82625,7 @@
       </c>
       <c r="R702" s="2"/>
       <c r="S702" t="s" s="2">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="T702" t="s" s="2">
         <v>77</v>
@@ -82687,13 +82684,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B703" t="s" s="2">
+        <v>1806</v>
+      </c>
+      <c r="C703" t="s" s="2">
         <v>1807</v>
-      </c>
-      <c r="C703" t="s" s="2">
-        <v>1808</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -82792,13 +82789,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B704" t="s" s="2">
+        <v>1808</v>
+      </c>
+      <c r="C704" t="s" s="2">
         <v>1809</v>
-      </c>
-      <c r="C704" t="s" s="2">
-        <v>1810</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -82895,13 +82892,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B705" t="s" s="2">
+        <v>1810</v>
+      </c>
+      <c r="C705" t="s" s="2">
         <v>1811</v>
-      </c>
-      <c r="C705" t="s" s="2">
-        <v>1812</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -83000,16 +82997,16 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B706" t="s" s="2">
+        <v>1812</v>
+      </c>
+      <c r="C706" t="s" s="2">
+        <v>1789</v>
+      </c>
+      <c r="D706" t="s" s="2">
         <v>1813</v>
-      </c>
-      <c r="C706" t="s" s="2">
-        <v>1790</v>
-      </c>
-      <c r="D706" t="s" s="2">
-        <v>1814</v>
       </c>
       <c r="E706" t="s" s="2">
         <v>77</v>
@@ -83034,10 +83031,10 @@
         <v>294</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
@@ -83088,7 +83085,7 @@
         <v>77</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>78</v>
@@ -83105,13 +83102,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -83208,13 +83205,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -83313,13 +83310,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -83420,13 +83417,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -83527,13 +83524,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -83575,7 +83572,7 @@
       </c>
       <c r="R711" s="2"/>
       <c r="S711" t="s" s="2">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="T711" t="s" s="2">
         <v>77</v>
@@ -83634,13 +83631,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -83739,13 +83736,13 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -83842,13 +83839,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -83947,13 +83944,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -83979,10 +83976,10 @@
         <v>160</v>
       </c>
       <c r="M715" t="s" s="2">
+        <v>1825</v>
+      </c>
+      <c r="N715" t="s" s="2">
         <v>1826</v>
-      </c>
-      <c r="N715" t="s" s="2">
-        <v>1827</v>
       </c>
       <c r="O715" t="s" s="2">
         <v>565</v>
@@ -84037,7 +84034,7 @@
         <v>77</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>78</v>
@@ -84054,13 +84051,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -84086,7 +84083,7 @@
         <v>122</v>
       </c>
       <c r="M716" t="s" s="2">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="N716" t="s" s="2">
         <v>354</v>
@@ -84138,7 +84135,7 @@
         <v>77</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>78</v>
@@ -84155,13 +84152,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -84187,7 +84184,7 @@
         <v>122</v>
       </c>
       <c r="M717" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N717" t="s" s="2">
         <v>358</v>
@@ -84239,7 +84236,7 @@
         <v>77</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>78</v>
@@ -84256,13 +84253,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -84288,7 +84285,7 @@
         <v>122</v>
       </c>
       <c r="M718" t="s" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="N718" t="s" s="2">
         <v>363</v>
@@ -84342,7 +84339,7 @@
         <v>77</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>78</v>
@@ -84359,13 +84356,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -84388,16 +84385,16 @@
         <v>127</v>
       </c>
       <c r="L719" t="s" s="2">
+        <v>1834</v>
+      </c>
+      <c r="M719" t="s" s="2">
         <v>1835</v>
       </c>
-      <c r="M719" t="s" s="2">
+      <c r="N719" t="s" s="2">
         <v>1836</v>
       </c>
-      <c r="N719" t="s" s="2">
+      <c r="O719" t="s" s="2">
         <v>1837</v>
-      </c>
-      <c r="O719" t="s" s="2">
-        <v>1838</v>
       </c>
       <c r="P719" s="2"/>
       <c r="Q719" t="s" s="2">
@@ -84447,7 +84444,7 @@
         <v>77</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>84</v>
@@ -84459,18 +84456,18 @@
         <v>77</v>
       </c>
       <c r="AK719" t="s" s="2">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -84496,10 +84493,10 @@
         <v>332</v>
       </c>
       <c r="M720" t="s" s="2">
+        <v>1840</v>
+      </c>
+      <c r="N720" t="s" s="2">
         <v>1841</v>
-      </c>
-      <c r="N720" t="s" s="2">
-        <v>1842</v>
       </c>
       <c r="O720" s="2"/>
       <c r="P720" s="2"/>
@@ -84550,7 +84547,7 @@
         <v>77</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>78</v>
@@ -84567,13 +84564,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" t="s" s="2">
@@ -84599,10 +84596,10 @@
         <v>85</v>
       </c>
       <c r="M721" t="s" s="2">
+        <v>1843</v>
+      </c>
+      <c r="N721" t="s" s="2">
         <v>1844</v>
-      </c>
-      <c r="N721" t="s" s="2">
-        <v>1845</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -84653,7 +84650,7 @@
         <v>77</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>78</v>
@@ -84670,13 +84667,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -84702,10 +84699,10 @@
         <v>80</v>
       </c>
       <c r="M722" t="s" s="2">
+        <v>1852</v>
+      </c>
+      <c r="N722" t="s" s="2">
         <v>1853</v>
-      </c>
-      <c r="N722" t="s" s="2">
-        <v>1854</v>
       </c>
       <c r="O722" s="2"/>
       <c r="P722" s="2"/>
@@ -84756,7 +84753,7 @@
         <v>77</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>78</v>
@@ -84773,13 +84770,13 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B723" t="s" s="2">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C723" t="s" s="2">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" t="s" s="2">
@@ -84805,7 +84802,7 @@
         <v>235</v>
       </c>
       <c r="M723" t="s" s="2">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="N723" t="s" s="2">
         <v>237</v>
@@ -84878,13 +84875,13 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B724" t="s" s="2">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C724" t="s" s="2">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" t="s" s="2">
@@ -84981,13 +84978,13 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B725" t="s" s="2">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C725" t="s" s="2">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" t="s" s="2">
@@ -85086,13 +85083,13 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B726" t="s" s="2">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C726" t="s" s="2">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" t="s" s="2">
@@ -85191,13 +85188,13 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B727" t="s" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C727" t="s" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" t="s" s="2">
@@ -85296,13 +85293,13 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B728" t="s" s="2">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C728" t="s" s="2">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D728" s="2"/>
       <c r="E728" t="s" s="2">
@@ -85401,13 +85398,13 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C729" t="s" s="2">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" t="s" s="2">
@@ -85502,16 +85499,16 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B730" t="s" s="2">
+        <v>1862</v>
+      </c>
+      <c r="C730" t="s" s="2">
+        <v>1861</v>
+      </c>
+      <c r="D730" t="s" s="2">
         <v>1863</v>
-      </c>
-      <c r="C730" t="s" s="2">
-        <v>1862</v>
-      </c>
-      <c r="D730" t="s" s="2">
-        <v>1864</v>
       </c>
       <c r="E730" t="s" s="2">
         <v>77</v>
@@ -85533,10 +85530,10 @@
         <v>77</v>
       </c>
       <c r="L730" t="s" s="2">
+        <v>1864</v>
+      </c>
+      <c r="M730" t="s" s="2">
         <v>1865</v>
-      </c>
-      <c r="M730" t="s" s="2">
-        <v>1866</v>
       </c>
       <c r="N730" t="s" s="2">
         <v>184</v>
@@ -85607,16 +85604,16 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B731" t="s" s="2">
+        <v>1866</v>
+      </c>
+      <c r="C731" t="s" s="2">
+        <v>1861</v>
+      </c>
+      <c r="D731" t="s" s="2">
         <v>1867</v>
-      </c>
-      <c r="C731" t="s" s="2">
-        <v>1862</v>
-      </c>
-      <c r="D731" t="s" s="2">
-        <v>1868</v>
       </c>
       <c r="E731" t="s" s="2">
         <v>77</v>
@@ -85638,10 +85635,10 @@
         <v>77</v>
       </c>
       <c r="L731" t="s" s="2">
+        <v>1868</v>
+      </c>
+      <c r="M731" t="s" s="2">
         <v>1869</v>
-      </c>
-      <c r="M731" t="s" s="2">
-        <v>1870</v>
       </c>
       <c r="N731" t="s" s="2">
         <v>192</v>
@@ -85712,13 +85709,13 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C732" t="s" s="2">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D732" s="2"/>
       <c r="E732" t="s" s="2">
@@ -85819,13 +85816,13 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C733" t="s" s="2">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D733" s="2"/>
       <c r="E733" t="s" s="2">
@@ -85851,10 +85848,10 @@
         <v>294</v>
       </c>
       <c r="M733" t="s" s="2">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="N733" t="s" s="2">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="O733" s="2"/>
       <c r="P733" s="2"/>
@@ -85905,7 +85902,7 @@
         <v>77</v>
       </c>
       <c r="AG733" t="s" s="2">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AH733" t="s" s="2">
         <v>78</v>
@@ -85922,13 +85919,13 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C734" t="s" s="2">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D734" s="2"/>
       <c r="E734" t="s" s="2">
@@ -86025,13 +86022,13 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B735" t="s" s="2">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C735" t="s" s="2">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D735" s="2"/>
       <c r="E735" t="s" s="2">
@@ -86130,13 +86127,13 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B736" t="s" s="2">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C736" t="s" s="2">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D736" s="2"/>
       <c r="E736" t="s" s="2">
@@ -86237,13 +86234,13 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D737" s="2"/>
       <c r="E737" t="s" s="2">
@@ -86344,13 +86341,13 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C738" t="s" s="2">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" t="s" s="2">
@@ -86392,7 +86389,7 @@
       </c>
       <c r="R738" s="2"/>
       <c r="S738" t="s" s="2">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="T738" t="s" s="2">
         <v>77</v>
@@ -86451,13 +86448,13 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B739" t="s" s="2">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C739" t="s" s="2">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D739" s="2"/>
       <c r="E739" t="s" s="2">
@@ -86483,7 +86480,7 @@
         <v>85</v>
       </c>
       <c r="M739" t="s" s="2">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="N739" t="s" s="2">
         <v>327</v>
@@ -86556,13 +86553,13 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C740" t="s" s="2">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D740" s="2"/>
       <c r="E740" t="s" s="2">
@@ -86659,13 +86656,13 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C741" t="s" s="2">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D741" s="2"/>
       <c r="E741" t="s" s="2">
@@ -86764,13 +86761,13 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B742" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C742" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D742" s="2"/>
       <c r="E742" t="s" s="2">
@@ -86848,7 +86845,7 @@
         <v>77</v>
       </c>
       <c r="AG742" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AH742" t="s" s="2">
         <v>78</v>
@@ -86865,13 +86862,13 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B743" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C743" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" t="s" s="2">
@@ -86897,10 +86894,10 @@
         <v>122</v>
       </c>
       <c r="M743" t="s" s="2">
+        <v>1885</v>
+      </c>
+      <c r="N743" t="s" s="2">
         <v>1886</v>
-      </c>
-      <c r="N743" t="s" s="2">
-        <v>1887</v>
       </c>
       <c r="O743" s="2"/>
       <c r="P743" s="2"/>
@@ -86949,7 +86946,7 @@
         <v>77</v>
       </c>
       <c r="AG743" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="AH743" t="s" s="2">
         <v>78</v>
@@ -86966,13 +86963,13 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B744" t="s" s="2">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C744" t="s" s="2">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D744" s="2"/>
       <c r="E744" t="s" s="2">
@@ -87069,13 +87066,13 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B745" t="s" s="2">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C745" t="s" s="2">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D745" s="2"/>
       <c r="E745" t="s" s="2">
@@ -87174,13 +87171,13 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B746" t="s" s="2">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C746" t="s" s="2">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D746" s="2"/>
       <c r="E746" t="s" s="2">
@@ -87206,7 +87203,7 @@
         <v>128</v>
       </c>
       <c r="M746" t="s" s="2">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="N746" t="s" s="2">
         <v>130</v>
@@ -87281,13 +87278,13 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B747" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C747" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D747" s="2"/>
       <c r="E747" t="s" s="2">
@@ -87384,13 +87381,13 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B748" t="s" s="2">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C748" t="s" s="2">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D748" s="2"/>
       <c r="E748" t="s" s="2">
@@ -87489,13 +87486,13 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B749" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C749" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" t="s" s="2">
@@ -87596,13 +87593,13 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C750" t="s" s="2">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" t="s" s="2">
@@ -87701,13 +87698,13 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B751" t="s" s="2">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C751" t="s" s="2">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" t="s" s="2">
@@ -87806,13 +87803,13 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B752" t="s" s="2">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C752" t="s" s="2">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" t="s" s="2">
@@ -87911,13 +87908,13 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C753" t="s" s="2">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D753" s="2"/>
       <c r="E753" t="s" s="2">
@@ -88018,13 +88015,13 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B754" t="s" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C754" t="s" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D754" s="2"/>
       <c r="E754" t="s" s="2">
@@ -88125,13 +88122,13 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B755" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C755" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D755" s="2"/>
       <c r="E755" t="s" s="2">
@@ -88211,7 +88208,7 @@
         <v>77</v>
       </c>
       <c r="AG755" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AH755" t="s" s="2">
         <v>78</v>
@@ -88228,13 +88225,13 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B756" t="s" s="2">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C756" t="s" s="2">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D756" s="2"/>
       <c r="E756" t="s" s="2">
@@ -88260,10 +88257,10 @@
         <v>122</v>
       </c>
       <c r="M756" t="s" s="2">
+        <v>1901</v>
+      </c>
+      <c r="N756" t="s" s="2">
         <v>1902</v>
-      </c>
-      <c r="N756" t="s" s="2">
-        <v>1903</v>
       </c>
       <c r="O756" s="2"/>
       <c r="P756" s="2"/>
@@ -88294,7 +88291,7 @@
       </c>
       <c r="Z756" s="2"/>
       <c r="AA756" t="s" s="2">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="AB756" t="s" s="2">
         <v>77</v>
@@ -88312,7 +88309,7 @@
         <v>77</v>
       </c>
       <c r="AG756" t="s" s="2">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="AH756" t="s" s="2">
         <v>78</v>
@@ -88329,13 +88326,13 @@
     </row>
     <row r="757">
       <c r="A757" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B757" t="s" s="2">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C757" t="s" s="2">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D757" s="2"/>
       <c r="E757" t="s" s="2">
@@ -88358,13 +88355,13 @@
         <v>127</v>
       </c>
       <c r="L757" t="s" s="2">
+        <v>1905</v>
+      </c>
+      <c r="M757" t="s" s="2">
         <v>1906</v>
       </c>
-      <c r="M757" t="s" s="2">
+      <c r="N757" t="s" s="2">
         <v>1907</v>
-      </c>
-      <c r="N757" t="s" s="2">
-        <v>1908</v>
       </c>
       <c r="O757" s="2"/>
       <c r="P757" s="2"/>
@@ -88415,7 +88412,7 @@
         <v>77</v>
       </c>
       <c r="AG757" t="s" s="2">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="AH757" t="s" s="2">
         <v>84</v>
@@ -88432,13 +88429,13 @@
     </row>
     <row r="758">
       <c r="A758" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C758" t="s" s="2">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D758" s="2"/>
       <c r="E758" t="s" s="2">
@@ -88464,10 +88461,10 @@
         <v>149</v>
       </c>
       <c r="M758" t="s" s="2">
+        <v>1909</v>
+      </c>
+      <c r="N758" t="s" s="2">
         <v>1910</v>
-      </c>
-      <c r="N758" t="s" s="2">
-        <v>1911</v>
       </c>
       <c r="O758" s="2"/>
       <c r="P758" s="2"/>
@@ -88498,7 +88495,7 @@
       </c>
       <c r="Z758" s="2"/>
       <c r="AA758" t="s" s="2">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="AB758" t="s" s="2">
         <v>77</v>
@@ -88516,7 +88513,7 @@
         <v>77</v>
       </c>
       <c r="AG758" t="s" s="2">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="AH758" t="s" s="2">
         <v>84</v>
@@ -88533,13 +88530,13 @@
     </row>
     <row r="759">
       <c r="A759" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C759" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D759" s="2"/>
       <c r="E759" t="s" s="2">
@@ -88565,10 +88562,10 @@
         <v>405</v>
       </c>
       <c r="M759" t="s" s="2">
+        <v>1913</v>
+      </c>
+      <c r="N759" t="s" s="2">
         <v>1914</v>
-      </c>
-      <c r="N759" t="s" s="2">
-        <v>1915</v>
       </c>
       <c r="O759" s="2"/>
       <c r="P759" s="2"/>
@@ -88619,7 +88616,7 @@
         <v>77</v>
       </c>
       <c r="AG759" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="AH759" t="s" s="2">
         <v>84</v>
@@ -88636,13 +88633,13 @@
     </row>
     <row r="760">
       <c r="A760" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B760" t="s" s="2">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C760" t="s" s="2">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D760" s="2"/>
       <c r="E760" t="s" s="2">
@@ -88668,10 +88665,10 @@
         <v>405</v>
       </c>
       <c r="M760" t="s" s="2">
+        <v>1916</v>
+      </c>
+      <c r="N760" t="s" s="2">
         <v>1917</v>
-      </c>
-      <c r="N760" t="s" s="2">
-        <v>1918</v>
       </c>
       <c r="O760" s="2"/>
       <c r="P760" s="2"/>
@@ -88722,7 +88719,7 @@
         <v>77</v>
       </c>
       <c r="AG760" t="s" s="2">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="AH760" t="s" s="2">
         <v>84</v>
@@ -88739,13 +88736,13 @@
     </row>
     <row r="761">
       <c r="A761" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C761" t="s" s="2">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D761" s="2"/>
       <c r="E761" t="s" s="2">
@@ -88771,10 +88768,10 @@
         <v>160</v>
       </c>
       <c r="M761" t="s" s="2">
+        <v>1919</v>
+      </c>
+      <c r="N761" t="s" s="2">
         <v>1920</v>
-      </c>
-      <c r="N761" t="s" s="2">
-        <v>1921</v>
       </c>
       <c r="O761" s="2"/>
       <c r="P761" s="2"/>
@@ -88782,7 +88779,7 @@
         <v>77</v>
       </c>
       <c r="R761" t="s" s="2">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="S761" t="s" s="2">
         <v>77</v>
@@ -88827,7 +88824,7 @@
         <v>77</v>
       </c>
       <c r="AG761" t="s" s="2">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AH761" t="s" s="2">
         <v>78</v>
@@ -88844,13 +88841,13 @@
     </row>
     <row r="762">
       <c r="A762" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C762" t="s" s="2">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D762" s="2"/>
       <c r="E762" t="s" s="2">
@@ -88876,10 +88873,10 @@
         <v>85</v>
       </c>
       <c r="M762" t="s" s="2">
+        <v>1923</v>
+      </c>
+      <c r="N762" t="s" s="2">
         <v>1924</v>
-      </c>
-      <c r="N762" t="s" s="2">
-        <v>1925</v>
       </c>
       <c r="O762" s="2"/>
       <c r="P762" s="2"/>
@@ -88930,7 +88927,7 @@
         <v>77</v>
       </c>
       <c r="AG762" t="s" s="2">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="AH762" t="s" s="2">
         <v>78</v>
